--- a/T2/学术仿真/结果/仅仅线路变化的df只有2023.xlsx
+++ b/T2/学术仿真/结果/仅仅线路变化的df只有2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AH68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,155 +446,160 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>日均增量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>2023-01-02</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2023-01-04</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2023-01-05</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2023-01-07</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2023-01-08</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2023-01-10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2023-01-14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2023-01-15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2023-01-16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2023-01-18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>2023-01-21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>2023-01-22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>2023-01-23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>2023-01-24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>2023-01-25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>2023-01-26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>2023-01-28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>2023-01-29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>2023-01-30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
@@ -602,4918 +607,5062 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>15387.1935483871</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>18832</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>20866</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>20166</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>21602</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>22446</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>23390</v>
       </c>
       <c r="J2" t="n">
-        <v>29</v>
+        <v>24132</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>25090</v>
       </c>
       <c r="L2" t="n">
-        <v>31</v>
+        <v>26018</v>
       </c>
       <c r="M2" t="n">
-        <v>32</v>
+        <v>26962</v>
       </c>
       <c r="N2" t="n">
-        <v>32</v>
+        <v>27820</v>
       </c>
       <c r="O2" t="n">
-        <v>33</v>
+        <v>28706</v>
       </c>
       <c r="P2" t="n">
-        <v>34</v>
+        <v>29572</v>
       </c>
       <c r="Q2" t="n">
-        <v>35</v>
+        <v>30416</v>
       </c>
       <c r="R2" t="n">
-        <v>36</v>
+        <v>31272</v>
       </c>
       <c r="S2" t="n">
-        <v>36</v>
+        <v>32036</v>
       </c>
       <c r="T2" t="n">
-        <v>37</v>
+        <v>32776</v>
       </c>
       <c r="U2" t="n">
-        <v>38</v>
+        <v>33486</v>
       </c>
       <c r="V2" t="n">
-        <v>39</v>
+        <v>34156</v>
       </c>
       <c r="W2" t="n">
-        <v>40</v>
+        <v>34714</v>
       </c>
       <c r="X2" t="n">
-        <v>40</v>
+        <v>35364</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>35888</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>36372</v>
       </c>
       <c r="AA2" t="n">
-        <v>43</v>
+        <v>36742</v>
       </c>
       <c r="AB2" t="n">
-        <v>44</v>
+        <v>37164</v>
       </c>
       <c r="AC2" t="n">
-        <v>44</v>
+        <v>37448</v>
       </c>
       <c r="AD2" t="n">
-        <v>45</v>
+        <v>37694</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>37944</v>
       </c>
       <c r="AF2" t="n">
-        <v>46</v>
+        <v>38150</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>38352</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>38430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>12080.25806451613</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>20066</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>22054</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>22110</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>21804</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>21934</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>22302</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>22488</v>
       </c>
       <c r="K3" t="n">
-        <v>33</v>
+        <v>22622</v>
       </c>
       <c r="L3" t="n">
-        <v>35</v>
+        <v>22826</v>
       </c>
       <c r="M3" t="n">
-        <v>36</v>
+        <v>23030</v>
       </c>
       <c r="N3" t="n">
-        <v>37</v>
+        <v>23220</v>
       </c>
       <c r="O3" t="n">
-        <v>39</v>
+        <v>23396</v>
       </c>
       <c r="P3" t="n">
-        <v>40</v>
+        <v>23586</v>
       </c>
       <c r="Q3" t="n">
-        <v>41</v>
+        <v>23768</v>
       </c>
       <c r="R3" t="n">
-        <v>42</v>
+        <v>23958</v>
       </c>
       <c r="S3" t="n">
-        <v>43</v>
+        <v>24148</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>24336</v>
       </c>
       <c r="U3" t="n">
-        <v>46</v>
+        <v>24524</v>
       </c>
       <c r="V3" t="n">
-        <v>47</v>
+        <v>24720</v>
       </c>
       <c r="W3" t="n">
-        <v>47</v>
+        <v>24908</v>
       </c>
       <c r="X3" t="n">
-        <v>48</v>
+        <v>25106</v>
       </c>
       <c r="Y3" t="n">
-        <v>49</v>
+        <v>25300</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>25494</v>
       </c>
       <c r="AA3" t="n">
-        <v>51</v>
+        <v>25698</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>25904</v>
       </c>
       <c r="AC3" t="n">
-        <v>52</v>
+        <v>26100</v>
       </c>
       <c r="AD3" t="n">
-        <v>52</v>
+        <v>26300</v>
       </c>
       <c r="AE3" t="n">
-        <v>53</v>
+        <v>26510</v>
       </c>
       <c r="AF3" t="n">
-        <v>53</v>
+        <v>26716</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>26922</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>3862</v>
+        <v>10964.22580645161</v>
       </c>
       <c r="D4" t="n">
-        <v>4021</v>
+        <v>14371</v>
       </c>
       <c r="E4" t="n">
-        <v>4214</v>
+        <v>13442</v>
       </c>
       <c r="F4" t="n">
-        <v>4434</v>
+        <v>14051</v>
       </c>
       <c r="G4" t="n">
-        <v>4677</v>
+        <v>13593</v>
       </c>
       <c r="H4" t="n">
-        <v>4918</v>
+        <v>13148</v>
       </c>
       <c r="I4" t="n">
-        <v>5180</v>
+        <v>12818</v>
       </c>
       <c r="J4" t="n">
-        <v>5440</v>
+        <v>12625</v>
       </c>
       <c r="K4" t="n">
-        <v>5720</v>
+        <v>12359</v>
       </c>
       <c r="L4" t="n">
-        <v>5989</v>
+        <v>12085</v>
       </c>
       <c r="M4" t="n">
-        <v>6254</v>
+        <v>11832</v>
       </c>
       <c r="N4" t="n">
-        <v>6520</v>
+        <v>11582</v>
       </c>
       <c r="O4" t="n">
-        <v>6768</v>
+        <v>11372</v>
       </c>
       <c r="P4" t="n">
-        <v>7007</v>
+        <v>11138</v>
       </c>
       <c r="Q4" t="n">
-        <v>7220</v>
+        <v>10951</v>
       </c>
       <c r="R4" t="n">
-        <v>7418</v>
+        <v>10737</v>
       </c>
       <c r="S4" t="n">
-        <v>7590</v>
+        <v>10558</v>
       </c>
       <c r="T4" t="n">
-        <v>7744</v>
+        <v>10398</v>
       </c>
       <c r="U4" t="n">
-        <v>7888</v>
+        <v>10243</v>
       </c>
       <c r="V4" t="n">
-        <v>8009</v>
+        <v>10095</v>
       </c>
       <c r="W4" t="n">
-        <v>8119</v>
+        <v>9951</v>
       </c>
       <c r="X4" t="n">
-        <v>8217</v>
+        <v>9815</v>
       </c>
       <c r="Y4" t="n">
-        <v>8311</v>
+        <v>9677</v>
       </c>
       <c r="Z4" t="n">
-        <v>8383</v>
+        <v>9581</v>
       </c>
       <c r="AA4" t="n">
-        <v>8444</v>
+        <v>9465</v>
       </c>
       <c r="AB4" t="n">
-        <v>8498</v>
+        <v>9379</v>
       </c>
       <c r="AC4" t="n">
-        <v>8543</v>
+        <v>9310</v>
       </c>
       <c r="AD4" t="n">
-        <v>8586</v>
+        <v>9242</v>
       </c>
       <c r="AE4" t="n">
-        <v>8611</v>
+        <v>9181</v>
       </c>
       <c r="AF4" t="n">
-        <v>8646</v>
+        <v>9127</v>
       </c>
       <c r="AG4" t="n">
-        <v>8660</v>
+        <v>9069</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>787</v>
+        <v>8009.709677419355</v>
       </c>
       <c r="D5" t="n">
-        <v>895</v>
+        <v>10567</v>
       </c>
       <c r="E5" t="n">
-        <v>941</v>
+        <v>9631</v>
       </c>
       <c r="F5" t="n">
-        <v>1038</v>
+        <v>10078</v>
       </c>
       <c r="G5" t="n">
-        <v>1122</v>
+        <v>10093</v>
       </c>
       <c r="H5" t="n">
-        <v>1218</v>
+        <v>9646</v>
       </c>
       <c r="I5" t="n">
-        <v>1306</v>
+        <v>9333</v>
       </c>
       <c r="J5" t="n">
-        <v>1398</v>
+        <v>9171</v>
       </c>
       <c r="K5" t="n">
-        <v>1489</v>
+        <v>9002</v>
       </c>
       <c r="L5" t="n">
-        <v>1579</v>
+        <v>8779</v>
       </c>
       <c r="M5" t="n">
-        <v>1666</v>
+        <v>8587</v>
       </c>
       <c r="N5" t="n">
-        <v>1752</v>
+        <v>8408</v>
       </c>
       <c r="O5" t="n">
-        <v>1836</v>
+        <v>8226</v>
       </c>
       <c r="P5" t="n">
-        <v>1918</v>
+        <v>8087</v>
       </c>
       <c r="Q5" t="n">
-        <v>1999</v>
+        <v>7923</v>
       </c>
       <c r="R5" t="n">
-        <v>2077</v>
+        <v>7793</v>
       </c>
       <c r="S5" t="n">
-        <v>2153</v>
+        <v>7679</v>
       </c>
       <c r="T5" t="n">
-        <v>2230</v>
+        <v>7563</v>
       </c>
       <c r="U5" t="n">
-        <v>2303</v>
+        <v>7461</v>
       </c>
       <c r="V5" t="n">
-        <v>2376</v>
+        <v>7356</v>
       </c>
       <c r="W5" t="n">
-        <v>2450</v>
+        <v>7256</v>
       </c>
       <c r="X5" t="n">
-        <v>2521</v>
+        <v>7189</v>
       </c>
       <c r="Y5" t="n">
-        <v>2593</v>
+        <v>7103</v>
       </c>
       <c r="Z5" t="n">
-        <v>2665</v>
+        <v>7043</v>
       </c>
       <c r="AA5" t="n">
-        <v>2738</v>
+        <v>6993</v>
       </c>
       <c r="AB5" t="n">
-        <v>2813</v>
+        <v>6945</v>
       </c>
       <c r="AC5" t="n">
-        <v>2890</v>
+        <v>6904</v>
       </c>
       <c r="AD5" t="n">
-        <v>2970</v>
+        <v>6859</v>
       </c>
       <c r="AE5" t="n">
-        <v>3052</v>
+        <v>6820</v>
       </c>
       <c r="AF5" t="n">
-        <v>3135</v>
+        <v>6810</v>
       </c>
       <c r="AG5" t="n">
-        <v>3221</v>
+        <v>6778</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>20066</v>
+        <v>7857.387096774193</v>
       </c>
       <c r="D6" t="n">
-        <v>22054</v>
+        <v>8380</v>
       </c>
       <c r="E6" t="n">
-        <v>22110</v>
+        <v>8731</v>
       </c>
       <c r="F6" t="n">
-        <v>21804</v>
+        <v>8766</v>
       </c>
       <c r="G6" t="n">
-        <v>21934</v>
+        <v>8674</v>
       </c>
       <c r="H6" t="n">
-        <v>22302</v>
+        <v>8977</v>
       </c>
       <c r="I6" t="n">
-        <v>22488</v>
+        <v>9215</v>
       </c>
       <c r="J6" t="n">
-        <v>22622</v>
+        <v>9453</v>
       </c>
       <c r="K6" t="n">
-        <v>22826</v>
+        <v>9702</v>
       </c>
       <c r="L6" t="n">
-        <v>23030</v>
+        <v>10016</v>
       </c>
       <c r="M6" t="n">
-        <v>23220</v>
+        <v>10392</v>
       </c>
       <c r="N6" t="n">
-        <v>23396</v>
+        <v>10820</v>
       </c>
       <c r="O6" t="n">
-        <v>23586</v>
+        <v>11313</v>
       </c>
       <c r="P6" t="n">
-        <v>23768</v>
+        <v>11888</v>
       </c>
       <c r="Q6" t="n">
-        <v>23958</v>
+        <v>12525</v>
       </c>
       <c r="R6" t="n">
-        <v>24148</v>
+        <v>13197</v>
       </c>
       <c r="S6" t="n">
-        <v>24336</v>
+        <v>13905</v>
       </c>
       <c r="T6" t="n">
-        <v>24524</v>
+        <v>14613</v>
       </c>
       <c r="U6" t="n">
-        <v>24720</v>
+        <v>15312</v>
       </c>
       <c r="V6" t="n">
-        <v>24908</v>
+        <v>15961</v>
       </c>
       <c r="W6" t="n">
-        <v>25106</v>
+        <v>16562</v>
       </c>
       <c r="X6" t="n">
-        <v>25300</v>
+        <v>17100</v>
       </c>
       <c r="Y6" t="n">
-        <v>25494</v>
+        <v>17578</v>
       </c>
       <c r="Z6" t="n">
-        <v>25698</v>
+        <v>18040</v>
       </c>
       <c r="AA6" t="n">
-        <v>25904</v>
+        <v>18403</v>
       </c>
       <c r="AB6" t="n">
-        <v>26100</v>
+        <v>18732</v>
       </c>
       <c r="AC6" t="n">
-        <v>26300</v>
+        <v>19047</v>
       </c>
       <c r="AD6" t="n">
-        <v>26510</v>
+        <v>19287</v>
       </c>
       <c r="AE6" t="n">
-        <v>26716</v>
+        <v>19541</v>
       </c>
       <c r="AF6" t="n">
-        <v>26922</v>
+        <v>19758</v>
       </c>
       <c r="AG6" t="n">
-        <v>27126</v>
+        <v>19965</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>5991.548387096775</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>24834</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>24209</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>22875</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>21856</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>20973</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>20261</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>19517</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>18860</v>
       </c>
       <c r="L7" t="n">
-        <v>12</v>
+        <v>18271</v>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>17723</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>17230</v>
       </c>
       <c r="O7" t="n">
-        <v>13</v>
+        <v>16744</v>
       </c>
       <c r="P7" t="n">
-        <v>14</v>
+        <v>16293</v>
       </c>
       <c r="Q7" t="n">
-        <v>13</v>
+        <v>15868</v>
       </c>
       <c r="R7" t="n">
-        <v>13</v>
+        <v>15485</v>
       </c>
       <c r="S7" t="n">
-        <v>13</v>
+        <v>15070</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
+        <v>14712</v>
       </c>
       <c r="U7" t="n">
-        <v>14</v>
+        <v>14364</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14032</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>13717</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13410</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>13108</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>12809</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>12519</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>12235</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>11953</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>11705</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>11442</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>11203</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>10977</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>8380</v>
+        <v>5433.225806451613</v>
       </c>
       <c r="D8" t="n">
-        <v>8731</v>
+        <v>3188</v>
       </c>
       <c r="E8" t="n">
-        <v>8766</v>
+        <v>3361</v>
       </c>
       <c r="F8" t="n">
-        <v>8674</v>
+        <v>3309</v>
       </c>
       <c r="G8" t="n">
-        <v>8977</v>
+        <v>3329</v>
       </c>
       <c r="H8" t="n">
-        <v>9215</v>
+        <v>3452</v>
       </c>
       <c r="I8" t="n">
-        <v>9453</v>
+        <v>3563</v>
       </c>
       <c r="J8" t="n">
-        <v>9702</v>
+        <v>3661</v>
       </c>
       <c r="K8" t="n">
-        <v>10016</v>
+        <v>3761</v>
       </c>
       <c r="L8" t="n">
-        <v>10392</v>
+        <v>3867</v>
       </c>
       <c r="M8" t="n">
-        <v>10820</v>
+        <v>3991</v>
       </c>
       <c r="N8" t="n">
-        <v>11313</v>
+        <v>4119</v>
       </c>
       <c r="O8" t="n">
-        <v>11888</v>
+        <v>4255</v>
       </c>
       <c r="P8" t="n">
-        <v>12525</v>
+        <v>4399</v>
       </c>
       <c r="Q8" t="n">
-        <v>13197</v>
+        <v>4571</v>
       </c>
       <c r="R8" t="n">
-        <v>13905</v>
+        <v>4755</v>
       </c>
       <c r="S8" t="n">
-        <v>14613</v>
+        <v>4949</v>
       </c>
       <c r="T8" t="n">
-        <v>15312</v>
+        <v>5158</v>
       </c>
       <c r="U8" t="n">
-        <v>15961</v>
+        <v>5373</v>
       </c>
       <c r="V8" t="n">
-        <v>16562</v>
+        <v>5597</v>
       </c>
       <c r="W8" t="n">
-        <v>17100</v>
+        <v>5828</v>
       </c>
       <c r="X8" t="n">
-        <v>17578</v>
+        <v>6098</v>
       </c>
       <c r="Y8" t="n">
-        <v>18040</v>
+        <v>6354</v>
       </c>
       <c r="Z8" t="n">
-        <v>18403</v>
+        <v>6653</v>
       </c>
       <c r="AA8" t="n">
-        <v>18732</v>
+        <v>6968</v>
       </c>
       <c r="AB8" t="n">
-        <v>19047</v>
+        <v>7262</v>
       </c>
       <c r="AC8" t="n">
-        <v>19287</v>
+        <v>7603</v>
       </c>
       <c r="AD8" t="n">
-        <v>19541</v>
+        <v>7956</v>
       </c>
       <c r="AE8" t="n">
-        <v>19758</v>
+        <v>8284</v>
       </c>
       <c r="AF8" t="n">
-        <v>19965</v>
+        <v>8665</v>
       </c>
       <c r="AG8" t="n">
-        <v>20177</v>
+        <v>9017</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>5054.548387096775</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>7192</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>7282</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>7696</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>7566</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>7696</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>7824</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>7968</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>8076</v>
       </c>
       <c r="L9" t="n">
-        <v>13</v>
+        <v>8216</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>8360</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>8506</v>
       </c>
       <c r="O9" t="n">
-        <v>13</v>
+        <v>8652</v>
       </c>
       <c r="P9" t="n">
-        <v>13</v>
+        <v>8848</v>
       </c>
       <c r="Q9" t="n">
-        <v>13</v>
+        <v>9056</v>
       </c>
       <c r="R9" t="n">
-        <v>13</v>
+        <v>9280</v>
       </c>
       <c r="S9" t="n">
-        <v>12</v>
+        <v>9516</v>
       </c>
       <c r="T9" t="n">
-        <v>12</v>
+        <v>9760</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>10010</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>10266</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>10578</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>10864</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11200</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11562</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>11938</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>12332</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>12744</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>13162</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13592</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>14036</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>14560</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>4993.419354838709</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7175</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>7112</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>6979</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>7053</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7022</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>7036</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>7041</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>7078</v>
       </c>
       <c r="L10" t="n">
-        <v>12</v>
+        <v>7140</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>7232</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>7345</v>
       </c>
       <c r="O10" t="n">
-        <v>12</v>
+        <v>7487</v>
       </c>
       <c r="P10" t="n">
-        <v>14</v>
+        <v>7655</v>
       </c>
       <c r="Q10" t="n">
-        <v>14</v>
+        <v>7881</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>8128</v>
       </c>
       <c r="S10" t="n">
-        <v>14</v>
+        <v>8431</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>8799</v>
       </c>
       <c r="U10" t="n">
-        <v>16</v>
+        <v>9207</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>9663</v>
       </c>
       <c r="W10" t="n">
-        <v>16</v>
+        <v>10163</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>10721</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>11273</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>11867</v>
       </c>
       <c r="AA10" t="n">
-        <v>18</v>
+        <v>12462</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>13035</v>
       </c>
       <c r="AC10" t="n">
-        <v>20</v>
+        <v>13586</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>14101</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>14578</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>15031</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>15437</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4454.451612903225</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5975</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5633</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>5457</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>5431</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5302</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>5182</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5075</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>4983</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>4901</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>4805</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>4729</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>4663</v>
       </c>
       <c r="P11" t="n">
-        <v>12</v>
+        <v>4597</v>
       </c>
       <c r="Q11" t="n">
-        <v>14</v>
+        <v>4531</v>
       </c>
       <c r="R11" t="n">
-        <v>14</v>
+        <v>4473</v>
       </c>
       <c r="S11" t="n">
-        <v>16</v>
+        <v>4432</v>
       </c>
       <c r="T11" t="n">
-        <v>16</v>
+        <v>4400</v>
       </c>
       <c r="U11" t="n">
-        <v>16</v>
+        <v>4369</v>
       </c>
       <c r="V11" t="n">
-        <v>18</v>
+        <v>4340</v>
       </c>
       <c r="W11" t="n">
-        <v>18</v>
+        <v>4313</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>4286</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>4280</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>4258</v>
       </c>
       <c r="AA11" t="n">
-        <v>22</v>
+        <v>4254</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>4256</v>
       </c>
       <c r="AC11" t="n">
-        <v>22</v>
+        <v>4256</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>4259</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>4263</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>4288</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>4299</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
-        <v>14371</v>
+        <v>4314.516129032259</v>
       </c>
       <c r="D12" t="n">
-        <v>13442</v>
+        <v>16850</v>
       </c>
       <c r="E12" t="n">
-        <v>14051</v>
+        <v>16661</v>
       </c>
       <c r="F12" t="n">
-        <v>13593</v>
+        <v>16226</v>
       </c>
       <c r="G12" t="n">
-        <v>13148</v>
+        <v>16010</v>
       </c>
       <c r="H12" t="n">
-        <v>12818</v>
+        <v>15773</v>
       </c>
       <c r="I12" t="n">
-        <v>12625</v>
+        <v>15551</v>
       </c>
       <c r="J12" t="n">
-        <v>12359</v>
+        <v>15326</v>
       </c>
       <c r="K12" t="n">
-        <v>12085</v>
+        <v>15105</v>
       </c>
       <c r="L12" t="n">
-        <v>11832</v>
+        <v>14906</v>
       </c>
       <c r="M12" t="n">
-        <v>11582</v>
+        <v>14745</v>
       </c>
       <c r="N12" t="n">
-        <v>11372</v>
+        <v>14573</v>
       </c>
       <c r="O12" t="n">
-        <v>11138</v>
+        <v>14428</v>
       </c>
       <c r="P12" t="n">
-        <v>10951</v>
+        <v>14294</v>
       </c>
       <c r="Q12" t="n">
-        <v>10737</v>
+        <v>14160</v>
       </c>
       <c r="R12" t="n">
-        <v>10558</v>
+        <v>14029</v>
       </c>
       <c r="S12" t="n">
-        <v>10398</v>
+        <v>13920</v>
       </c>
       <c r="T12" t="n">
-        <v>10243</v>
+        <v>13799</v>
       </c>
       <c r="U12" t="n">
-        <v>10095</v>
+        <v>13694</v>
       </c>
       <c r="V12" t="n">
-        <v>9951</v>
+        <v>13596</v>
       </c>
       <c r="W12" t="n">
-        <v>9815</v>
+        <v>13498</v>
       </c>
       <c r="X12" t="n">
-        <v>9677</v>
+        <v>13405</v>
       </c>
       <c r="Y12" t="n">
-        <v>9581</v>
+        <v>13313</v>
       </c>
       <c r="Z12" t="n">
-        <v>9465</v>
+        <v>13240</v>
       </c>
       <c r="AA12" t="n">
-        <v>9379</v>
+        <v>13172</v>
       </c>
       <c r="AB12" t="n">
-        <v>9310</v>
+        <v>13105</v>
       </c>
       <c r="AC12" t="n">
-        <v>9242</v>
+        <v>13042</v>
       </c>
       <c r="AD12" t="n">
-        <v>9181</v>
+        <v>12979</v>
       </c>
       <c r="AE12" t="n">
-        <v>9127</v>
+        <v>12917</v>
       </c>
       <c r="AF12" t="n">
-        <v>9069</v>
+        <v>12856</v>
       </c>
       <c r="AG12" t="n">
-        <v>9012</v>
+        <v>12814</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>64</v>
       </c>
       <c r="C13" t="n">
-        <v>2729</v>
+        <v>4164.387096774193</v>
       </c>
       <c r="D13" t="n">
-        <v>2629</v>
+        <v>4881</v>
       </c>
       <c r="E13" t="n">
-        <v>2716</v>
+        <v>4674</v>
       </c>
       <c r="F13" t="n">
-        <v>2665</v>
+        <v>4595</v>
       </c>
       <c r="G13" t="n">
-        <v>2688</v>
+        <v>4590</v>
       </c>
       <c r="H13" t="n">
-        <v>2683</v>
+        <v>4482</v>
       </c>
       <c r="I13" t="n">
-        <v>2703</v>
+        <v>4397</v>
       </c>
       <c r="J13" t="n">
-        <v>2709</v>
+        <v>4330</v>
       </c>
       <c r="K13" t="n">
-        <v>2725</v>
+        <v>4278</v>
       </c>
       <c r="L13" t="n">
-        <v>2739</v>
+        <v>4215</v>
       </c>
       <c r="M13" t="n">
-        <v>2760</v>
+        <v>4160</v>
       </c>
       <c r="N13" t="n">
-        <v>2786</v>
+        <v>4125</v>
       </c>
       <c r="O13" t="n">
-        <v>2809</v>
+        <v>4076</v>
       </c>
       <c r="P13" t="n">
-        <v>2834</v>
+        <v>4044</v>
       </c>
       <c r="Q13" t="n">
-        <v>2862</v>
+        <v>4018</v>
       </c>
       <c r="R13" t="n">
-        <v>2894</v>
+        <v>3991</v>
       </c>
       <c r="S13" t="n">
-        <v>2933</v>
+        <v>3968</v>
       </c>
       <c r="T13" t="n">
-        <v>2969</v>
+        <v>3945</v>
       </c>
       <c r="U13" t="n">
-        <v>3008</v>
+        <v>3943</v>
       </c>
       <c r="V13" t="n">
-        <v>3056</v>
+        <v>3945</v>
       </c>
       <c r="W13" t="n">
-        <v>3106</v>
+        <v>3948</v>
       </c>
       <c r="X13" t="n">
-        <v>3156</v>
+        <v>3954</v>
       </c>
       <c r="Y13" t="n">
-        <v>3210</v>
+        <v>3961</v>
       </c>
       <c r="Z13" t="n">
-        <v>3264</v>
+        <v>3968</v>
       </c>
       <c r="AA13" t="n">
-        <v>3318</v>
+        <v>3974</v>
       </c>
       <c r="AB13" t="n">
-        <v>3375</v>
+        <v>4001</v>
       </c>
       <c r="AC13" t="n">
-        <v>3431</v>
+        <v>4036</v>
       </c>
       <c r="AD13" t="n">
-        <v>3490</v>
+        <v>4068</v>
       </c>
       <c r="AE13" t="n">
-        <v>3566</v>
+        <v>4105</v>
       </c>
       <c r="AF13" t="n">
-        <v>3632</v>
+        <v>4143</v>
       </c>
       <c r="AG13" t="n">
-        <v>3714</v>
+        <v>4179</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>436</v>
+        <v>2995.483870967742</v>
       </c>
       <c r="D14" t="n">
-        <v>474</v>
+        <v>2729</v>
       </c>
       <c r="E14" t="n">
-        <v>517</v>
+        <v>2629</v>
       </c>
       <c r="F14" t="n">
-        <v>564</v>
+        <v>2716</v>
       </c>
       <c r="G14" t="n">
-        <v>622</v>
+        <v>2665</v>
       </c>
       <c r="H14" t="n">
-        <v>685</v>
+        <v>2688</v>
       </c>
       <c r="I14" t="n">
-        <v>753</v>
+        <v>2683</v>
       </c>
       <c r="J14" t="n">
-        <v>831</v>
+        <v>2703</v>
       </c>
       <c r="K14" t="n">
-        <v>915</v>
+        <v>2709</v>
       </c>
       <c r="L14" t="n">
-        <v>1007</v>
+        <v>2725</v>
       </c>
       <c r="M14" t="n">
-        <v>1106</v>
+        <v>2739</v>
       </c>
       <c r="N14" t="n">
-        <v>1213</v>
+        <v>2760</v>
       </c>
       <c r="O14" t="n">
-        <v>1329</v>
+        <v>2786</v>
       </c>
       <c r="P14" t="n">
-        <v>1452</v>
+        <v>2809</v>
       </c>
       <c r="Q14" t="n">
-        <v>1586</v>
+        <v>2834</v>
       </c>
       <c r="R14" t="n">
-        <v>1727</v>
+        <v>2862</v>
       </c>
       <c r="S14" t="n">
-        <v>1880</v>
+        <v>2894</v>
       </c>
       <c r="T14" t="n">
-        <v>2046</v>
+        <v>2933</v>
       </c>
       <c r="U14" t="n">
-        <v>2228</v>
+        <v>2969</v>
       </c>
       <c r="V14" t="n">
-        <v>2423</v>
+        <v>3008</v>
       </c>
       <c r="W14" t="n">
-        <v>2639</v>
+        <v>3056</v>
       </c>
       <c r="X14" t="n">
-        <v>2879</v>
+        <v>3106</v>
       </c>
       <c r="Y14" t="n">
-        <v>3140</v>
+        <v>3156</v>
       </c>
       <c r="Z14" t="n">
-        <v>3428</v>
+        <v>3210</v>
       </c>
       <c r="AA14" t="n">
-        <v>3741</v>
+        <v>3264</v>
       </c>
       <c r="AB14" t="n">
-        <v>4099</v>
+        <v>3318</v>
       </c>
       <c r="AC14" t="n">
-        <v>4475</v>
+        <v>3375</v>
       </c>
       <c r="AD14" t="n">
-        <v>4892</v>
+        <v>3431</v>
       </c>
       <c r="AE14" t="n">
-        <v>5327</v>
+        <v>3490</v>
       </c>
       <c r="AF14" t="n">
-        <v>5780</v>
+        <v>3566</v>
       </c>
       <c r="AG14" t="n">
-        <v>6237</v>
+        <v>3632</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>3714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>10567</v>
+        <v>2727.645161290322</v>
       </c>
       <c r="D15" t="n">
-        <v>9631</v>
+        <v>2551</v>
       </c>
       <c r="E15" t="n">
-        <v>10078</v>
+        <v>2502</v>
       </c>
       <c r="F15" t="n">
-        <v>10093</v>
+        <v>2534</v>
       </c>
       <c r="G15" t="n">
-        <v>9646</v>
+        <v>2516</v>
       </c>
       <c r="H15" t="n">
-        <v>9333</v>
+        <v>2523</v>
       </c>
       <c r="I15" t="n">
-        <v>9171</v>
+        <v>2524</v>
       </c>
       <c r="J15" t="n">
-        <v>9002</v>
+        <v>2532</v>
       </c>
       <c r="K15" t="n">
-        <v>8779</v>
+        <v>2540</v>
       </c>
       <c r="L15" t="n">
-        <v>8587</v>
+        <v>2552</v>
       </c>
       <c r="M15" t="n">
-        <v>8408</v>
+        <v>2565</v>
       </c>
       <c r="N15" t="n">
-        <v>8226</v>
+        <v>2577</v>
       </c>
       <c r="O15" t="n">
-        <v>8087</v>
+        <v>2590</v>
       </c>
       <c r="P15" t="n">
-        <v>7923</v>
+        <v>2610</v>
       </c>
       <c r="Q15" t="n">
-        <v>7793</v>
+        <v>2631</v>
       </c>
       <c r="R15" t="n">
-        <v>7679</v>
+        <v>2652</v>
       </c>
       <c r="S15" t="n">
-        <v>7563</v>
+        <v>2674</v>
       </c>
       <c r="T15" t="n">
-        <v>7461</v>
+        <v>2698</v>
       </c>
       <c r="U15" t="n">
-        <v>7356</v>
+        <v>2720</v>
       </c>
       <c r="V15" t="n">
-        <v>7256</v>
+        <v>2743</v>
       </c>
       <c r="W15" t="n">
-        <v>7189</v>
+        <v>2768</v>
       </c>
       <c r="X15" t="n">
-        <v>7103</v>
+        <v>2798</v>
       </c>
       <c r="Y15" t="n">
-        <v>7043</v>
+        <v>2824</v>
       </c>
       <c r="Z15" t="n">
-        <v>6993</v>
+        <v>2855</v>
       </c>
       <c r="AA15" t="n">
-        <v>6945</v>
+        <v>2891</v>
       </c>
       <c r="AB15" t="n">
-        <v>6904</v>
+        <v>2924</v>
       </c>
       <c r="AC15" t="n">
-        <v>6859</v>
+        <v>2961</v>
       </c>
       <c r="AD15" t="n">
-        <v>6820</v>
+        <v>2997</v>
       </c>
       <c r="AE15" t="n">
-        <v>6810</v>
+        <v>3042</v>
       </c>
       <c r="AF15" t="n">
-        <v>6778</v>
+        <v>3073</v>
       </c>
       <c r="AG15" t="n">
-        <v>6773</v>
+        <v>3116</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>3167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7175</v>
+        <v>2649.516129032258</v>
       </c>
       <c r="D16" t="n">
-        <v>7112</v>
+        <v>10074</v>
       </c>
       <c r="E16" t="n">
-        <v>6979</v>
+        <v>10630</v>
       </c>
       <c r="F16" t="n">
-        <v>7053</v>
+        <v>10445</v>
       </c>
       <c r="G16" t="n">
-        <v>7022</v>
+        <v>10667</v>
       </c>
       <c r="H16" t="n">
-        <v>7036</v>
+        <v>11016</v>
       </c>
       <c r="I16" t="n">
-        <v>7041</v>
+        <v>11217</v>
       </c>
       <c r="J16" t="n">
-        <v>7078</v>
+        <v>11396</v>
       </c>
       <c r="K16" t="n">
-        <v>7140</v>
+        <v>11565</v>
       </c>
       <c r="L16" t="n">
-        <v>7232</v>
+        <v>11741</v>
       </c>
       <c r="M16" t="n">
-        <v>7345</v>
+        <v>11877</v>
       </c>
       <c r="N16" t="n">
-        <v>7487</v>
+        <v>12005</v>
       </c>
       <c r="O16" t="n">
-        <v>7655</v>
+        <v>12129</v>
       </c>
       <c r="P16" t="n">
-        <v>7881</v>
+        <v>12247</v>
       </c>
       <c r="Q16" t="n">
-        <v>8128</v>
+        <v>12343</v>
       </c>
       <c r="R16" t="n">
-        <v>8431</v>
+        <v>12434</v>
       </c>
       <c r="S16" t="n">
-        <v>8799</v>
+        <v>12513</v>
       </c>
       <c r="T16" t="n">
-        <v>9207</v>
+        <v>12587</v>
       </c>
       <c r="U16" t="n">
-        <v>9663</v>
+        <v>12662</v>
       </c>
       <c r="V16" t="n">
-        <v>10163</v>
+        <v>12742</v>
       </c>
       <c r="W16" t="n">
-        <v>10721</v>
+        <v>12791</v>
       </c>
       <c r="X16" t="n">
-        <v>11273</v>
+        <v>12865</v>
       </c>
       <c r="Y16" t="n">
-        <v>11867</v>
+        <v>12940</v>
       </c>
       <c r="Z16" t="n">
-        <v>12462</v>
+        <v>12989</v>
       </c>
       <c r="AA16" t="n">
-        <v>13035</v>
+        <v>13065</v>
       </c>
       <c r="AB16" t="n">
-        <v>13586</v>
+        <v>13113</v>
       </c>
       <c r="AC16" t="n">
-        <v>14101</v>
+        <v>13151</v>
       </c>
       <c r="AD16" t="n">
-        <v>14578</v>
+        <v>13219</v>
       </c>
       <c r="AE16" t="n">
-        <v>15031</v>
+        <v>13266</v>
       </c>
       <c r="AF16" t="n">
-        <v>15437</v>
+        <v>13314</v>
       </c>
       <c r="AG16" t="n">
-        <v>15832</v>
+        <v>13396</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13449</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>4881</v>
+        <v>2515.935483870968</v>
       </c>
       <c r="D17" t="n">
-        <v>4674</v>
+        <v>5942</v>
       </c>
       <c r="E17" t="n">
-        <v>4595</v>
+        <v>6199</v>
       </c>
       <c r="F17" t="n">
-        <v>4590</v>
+        <v>6338</v>
       </c>
       <c r="G17" t="n">
-        <v>4482</v>
+        <v>6655</v>
       </c>
       <c r="H17" t="n">
-        <v>4397</v>
+        <v>6950</v>
       </c>
       <c r="I17" t="n">
-        <v>4330</v>
+        <v>7290</v>
       </c>
       <c r="J17" t="n">
-        <v>4278</v>
+        <v>7617</v>
       </c>
       <c r="K17" t="n">
-        <v>4215</v>
+        <v>7978</v>
       </c>
       <c r="L17" t="n">
-        <v>4160</v>
+        <v>8336</v>
       </c>
       <c r="M17" t="n">
-        <v>4125</v>
+        <v>8702</v>
       </c>
       <c r="N17" t="n">
-        <v>4076</v>
+        <v>9067</v>
       </c>
       <c r="O17" t="n">
-        <v>4044</v>
+        <v>9426</v>
       </c>
       <c r="P17" t="n">
-        <v>4018</v>
+        <v>9784</v>
       </c>
       <c r="Q17" t="n">
-        <v>3991</v>
+        <v>10116</v>
       </c>
       <c r="R17" t="n">
-        <v>3968</v>
+        <v>10414</v>
       </c>
       <c r="S17" t="n">
-        <v>3945</v>
+        <v>10700</v>
       </c>
       <c r="T17" t="n">
-        <v>3943</v>
+        <v>10952</v>
       </c>
       <c r="U17" t="n">
-        <v>3945</v>
+        <v>11192</v>
       </c>
       <c r="V17" t="n">
-        <v>3948</v>
+        <v>11402</v>
       </c>
       <c r="W17" t="n">
-        <v>3954</v>
+        <v>11599</v>
       </c>
       <c r="X17" t="n">
-        <v>3961</v>
+        <v>11791</v>
       </c>
       <c r="Y17" t="n">
-        <v>3968</v>
+        <v>11952</v>
       </c>
       <c r="Z17" t="n">
-        <v>3974</v>
+        <v>12102</v>
       </c>
       <c r="AA17" t="n">
-        <v>4001</v>
+        <v>12247</v>
       </c>
       <c r="AB17" t="n">
-        <v>4036</v>
+        <v>12354</v>
       </c>
       <c r="AC17" t="n">
-        <v>4068</v>
+        <v>12455</v>
       </c>
       <c r="AD17" t="n">
-        <v>4105</v>
+        <v>12546</v>
       </c>
       <c r="AE17" t="n">
-        <v>4143</v>
+        <v>12638</v>
       </c>
       <c r="AF17" t="n">
-        <v>4179</v>
+        <v>12724</v>
       </c>
       <c r="AG17" t="n">
-        <v>4217</v>
+        <v>12816</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12913</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>654</v>
+        <v>2461.290322580645</v>
       </c>
       <c r="D18" t="n">
-        <v>717</v>
+        <v>2702</v>
       </c>
       <c r="E18" t="n">
-        <v>786</v>
+        <v>2618</v>
       </c>
       <c r="F18" t="n">
-        <v>855</v>
+        <v>2691</v>
       </c>
       <c r="G18" t="n">
-        <v>934</v>
+        <v>2693</v>
       </c>
       <c r="H18" t="n">
-        <v>1017</v>
+        <v>2694</v>
       </c>
       <c r="I18" t="n">
-        <v>1106</v>
+        <v>2695</v>
       </c>
       <c r="J18" t="n">
-        <v>1195</v>
+        <v>2701</v>
       </c>
       <c r="K18" t="n">
-        <v>1287</v>
+        <v>2711</v>
       </c>
       <c r="L18" t="n">
-        <v>1379</v>
+        <v>2719</v>
       </c>
       <c r="M18" t="n">
-        <v>1473</v>
+        <v>2730</v>
       </c>
       <c r="N18" t="n">
-        <v>1567</v>
+        <v>2742</v>
       </c>
       <c r="O18" t="n">
-        <v>1657</v>
+        <v>2756</v>
       </c>
       <c r="P18" t="n">
-        <v>1749</v>
+        <v>2770</v>
       </c>
       <c r="Q18" t="n">
-        <v>1840</v>
+        <v>2783</v>
       </c>
       <c r="R18" t="n">
-        <v>1929</v>
+        <v>2796</v>
       </c>
       <c r="S18" t="n">
-        <v>2016</v>
+        <v>2810</v>
       </c>
       <c r="T18" t="n">
-        <v>2099</v>
+        <v>2823</v>
       </c>
       <c r="U18" t="n">
-        <v>2186</v>
+        <v>2843</v>
       </c>
       <c r="V18" t="n">
-        <v>2268</v>
+        <v>2863</v>
       </c>
       <c r="W18" t="n">
-        <v>2346</v>
+        <v>2884</v>
       </c>
       <c r="X18" t="n">
-        <v>2425</v>
+        <v>2907</v>
       </c>
       <c r="Y18" t="n">
-        <v>2499</v>
+        <v>2929</v>
       </c>
       <c r="Z18" t="n">
-        <v>2576</v>
+        <v>2952</v>
       </c>
       <c r="AA18" t="n">
-        <v>2653</v>
+        <v>2975</v>
       </c>
       <c r="AB18" t="n">
-        <v>2726</v>
+        <v>3006</v>
       </c>
       <c r="AC18" t="n">
-        <v>2799</v>
+        <v>3037</v>
       </c>
       <c r="AD18" t="n">
-        <v>2874</v>
+        <v>3071</v>
       </c>
       <c r="AE18" t="n">
-        <v>2952</v>
+        <v>3106</v>
       </c>
       <c r="AF18" t="n">
-        <v>3030</v>
+        <v>3142</v>
       </c>
       <c r="AG18" t="n">
-        <v>3112</v>
+        <v>3178</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>5975</v>
+        <v>2242.709677419355</v>
       </c>
       <c r="D19" t="n">
-        <v>5633</v>
+        <v>2830</v>
       </c>
       <c r="E19" t="n">
-        <v>5457</v>
+        <v>2683</v>
       </c>
       <c r="F19" t="n">
-        <v>5431</v>
+        <v>2769</v>
       </c>
       <c r="G19" t="n">
-        <v>5302</v>
+        <v>2749</v>
       </c>
       <c r="H19" t="n">
-        <v>5182</v>
+        <v>2750</v>
       </c>
       <c r="I19" t="n">
-        <v>5075</v>
+        <v>2736</v>
       </c>
       <c r="J19" t="n">
-        <v>4983</v>
+        <v>2740</v>
       </c>
       <c r="K19" t="n">
-        <v>4901</v>
+        <v>2738</v>
       </c>
       <c r="L19" t="n">
-        <v>4805</v>
+        <v>2740</v>
       </c>
       <c r="M19" t="n">
-        <v>4729</v>
+        <v>2740</v>
       </c>
       <c r="N19" t="n">
-        <v>4663</v>
+        <v>2742</v>
       </c>
       <c r="O19" t="n">
-        <v>4597</v>
+        <v>2747</v>
       </c>
       <c r="P19" t="n">
-        <v>4531</v>
+        <v>2755</v>
       </c>
       <c r="Q19" t="n">
-        <v>4473</v>
+        <v>2762</v>
       </c>
       <c r="R19" t="n">
-        <v>4432</v>
+        <v>2770</v>
       </c>
       <c r="S19" t="n">
-        <v>4400</v>
+        <v>2777</v>
       </c>
       <c r="T19" t="n">
-        <v>4369</v>
+        <v>2785</v>
       </c>
       <c r="U19" t="n">
-        <v>4340</v>
+        <v>2793</v>
       </c>
       <c r="V19" t="n">
-        <v>4313</v>
+        <v>2800</v>
       </c>
       <c r="W19" t="n">
-        <v>4286</v>
+        <v>2806</v>
       </c>
       <c r="X19" t="n">
-        <v>4280</v>
+        <v>2816</v>
       </c>
       <c r="Y19" t="n">
-        <v>4258</v>
+        <v>2824</v>
       </c>
       <c r="Z19" t="n">
-        <v>4254</v>
+        <v>2835</v>
       </c>
       <c r="AA19" t="n">
-        <v>4256</v>
+        <v>2850</v>
       </c>
       <c r="AB19" t="n">
-        <v>4256</v>
+        <v>2861</v>
       </c>
       <c r="AC19" t="n">
-        <v>4259</v>
+        <v>2875</v>
       </c>
       <c r="AD19" t="n">
-        <v>4263</v>
+        <v>2889</v>
       </c>
       <c r="AE19" t="n">
-        <v>4288</v>
+        <v>2901</v>
       </c>
       <c r="AF19" t="n">
-        <v>4299</v>
+        <v>2915</v>
       </c>
       <c r="AG19" t="n">
-        <v>4323</v>
+        <v>2927</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>16850</v>
+        <v>2201.774193548387</v>
       </c>
       <c r="D20" t="n">
-        <v>16661</v>
+        <v>4794</v>
       </c>
       <c r="E20" t="n">
-        <v>16226</v>
+        <v>5278</v>
       </c>
       <c r="F20" t="n">
-        <v>16010</v>
+        <v>5635</v>
       </c>
       <c r="G20" t="n">
-        <v>15773</v>
+        <v>6010</v>
       </c>
       <c r="H20" t="n">
-        <v>15551</v>
+        <v>6426</v>
       </c>
       <c r="I20" t="n">
-        <v>15326</v>
+        <v>6872</v>
       </c>
       <c r="J20" t="n">
-        <v>15105</v>
+        <v>7330</v>
       </c>
       <c r="K20" t="n">
-        <v>14906</v>
+        <v>7808</v>
       </c>
       <c r="L20" t="n">
-        <v>14745</v>
+        <v>8278</v>
       </c>
       <c r="M20" t="n">
-        <v>14573</v>
+        <v>8759</v>
       </c>
       <c r="N20" t="n">
-        <v>14428</v>
+        <v>9215</v>
       </c>
       <c r="O20" t="n">
-        <v>14294</v>
+        <v>9643</v>
       </c>
       <c r="P20" t="n">
-        <v>14160</v>
+        <v>10060</v>
       </c>
       <c r="Q20" t="n">
-        <v>14029</v>
+        <v>10443</v>
       </c>
       <c r="R20" t="n">
-        <v>13920</v>
+        <v>10789</v>
       </c>
       <c r="S20" t="n">
-        <v>13799</v>
+        <v>11125</v>
       </c>
       <c r="T20" t="n">
-        <v>13694</v>
+        <v>11419</v>
       </c>
       <c r="U20" t="n">
-        <v>13596</v>
+        <v>11667</v>
       </c>
       <c r="V20" t="n">
-        <v>13498</v>
+        <v>11901</v>
       </c>
       <c r="W20" t="n">
-        <v>13405</v>
+        <v>12126</v>
       </c>
       <c r="X20" t="n">
-        <v>13313</v>
+        <v>12312</v>
       </c>
       <c r="Y20" t="n">
-        <v>13240</v>
+        <v>12488</v>
       </c>
       <c r="Z20" t="n">
-        <v>13172</v>
+        <v>12653</v>
       </c>
       <c r="AA20" t="n">
-        <v>13105</v>
+        <v>12782</v>
       </c>
       <c r="AB20" t="n">
-        <v>13042</v>
+        <v>12902</v>
       </c>
       <c r="AC20" t="n">
-        <v>12979</v>
+        <v>13014</v>
       </c>
       <c r="AD20" t="n">
-        <v>12917</v>
+        <v>13120</v>
       </c>
       <c r="AE20" t="n">
-        <v>12856</v>
+        <v>13224</v>
       </c>
       <c r="AF20" t="n">
-        <v>12814</v>
+        <v>13335</v>
       </c>
       <c r="AG20" t="n">
-        <v>12779</v>
+        <v>13443</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13522</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2145.129032258064</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>1947</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>1922</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>1976</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>1950</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>1977</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>1990</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2007</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>2018</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>2035</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>2051</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>2068</v>
       </c>
       <c r="O21" t="n">
-        <v>7</v>
+        <v>2085</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>2103</v>
       </c>
       <c r="Q21" t="n">
-        <v>8</v>
+        <v>2119</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>2136</v>
       </c>
       <c r="S21" t="n">
-        <v>9</v>
+        <v>2154</v>
       </c>
       <c r="T21" t="n">
-        <v>9</v>
+        <v>2177</v>
       </c>
       <c r="U21" t="n">
-        <v>9</v>
+        <v>2197</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>2221</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>2241</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>2266</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>2292</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>2319</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>2347</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>2375</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>2404</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>2432</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>2462</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>2491</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>2522</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2553</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
-        <v>2551</v>
+        <v>2131.677419354839</v>
       </c>
       <c r="D22" t="n">
-        <v>2502</v>
+        <v>2956</v>
       </c>
       <c r="E22" t="n">
-        <v>2534</v>
+        <v>2858</v>
       </c>
       <c r="F22" t="n">
-        <v>2516</v>
+        <v>3041</v>
       </c>
       <c r="G22" t="n">
-        <v>2523</v>
+        <v>3028</v>
       </c>
       <c r="H22" t="n">
-        <v>2524</v>
+        <v>3087</v>
       </c>
       <c r="I22" t="n">
-        <v>2532</v>
+        <v>3117</v>
       </c>
       <c r="J22" t="n">
-        <v>2540</v>
+        <v>3164</v>
       </c>
       <c r="K22" t="n">
-        <v>2552</v>
+        <v>3201</v>
       </c>
       <c r="L22" t="n">
-        <v>2565</v>
+        <v>3239</v>
       </c>
       <c r="M22" t="n">
-        <v>2577</v>
+        <v>3271</v>
       </c>
       <c r="N22" t="n">
-        <v>2590</v>
+        <v>3306</v>
       </c>
       <c r="O22" t="n">
-        <v>2610</v>
+        <v>3340</v>
       </c>
       <c r="P22" t="n">
-        <v>2631</v>
+        <v>3370</v>
       </c>
       <c r="Q22" t="n">
-        <v>2652</v>
+        <v>3399</v>
       </c>
       <c r="R22" t="n">
-        <v>2674</v>
+        <v>3428</v>
       </c>
       <c r="S22" t="n">
-        <v>2698</v>
+        <v>3456</v>
       </c>
       <c r="T22" t="n">
-        <v>2720</v>
+        <v>3486</v>
       </c>
       <c r="U22" t="n">
-        <v>2743</v>
+        <v>3513</v>
       </c>
       <c r="V22" t="n">
-        <v>2768</v>
+        <v>3542</v>
       </c>
       <c r="W22" t="n">
-        <v>2798</v>
+        <v>3571</v>
       </c>
       <c r="X22" t="n">
-        <v>2824</v>
+        <v>3599</v>
       </c>
       <c r="Y22" t="n">
-        <v>2855</v>
+        <v>3629</v>
       </c>
       <c r="Z22" t="n">
-        <v>2891</v>
+        <v>3657</v>
       </c>
       <c r="AA22" t="n">
-        <v>2924</v>
+        <v>3687</v>
       </c>
       <c r="AB22" t="n">
-        <v>2961</v>
+        <v>3716</v>
       </c>
       <c r="AC22" t="n">
-        <v>2997</v>
+        <v>3747</v>
       </c>
       <c r="AD22" t="n">
-        <v>3042</v>
+        <v>3777</v>
       </c>
       <c r="AE22" t="n">
-        <v>3073</v>
+        <v>3806</v>
       </c>
       <c r="AF22" t="n">
-        <v>3116</v>
+        <v>3835</v>
       </c>
       <c r="AG22" t="n">
-        <v>3167</v>
+        <v>3867</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>3899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C23" t="n">
-        <v>4794</v>
+        <v>1933.161290322581</v>
       </c>
       <c r="D23" t="n">
-        <v>5278</v>
+        <v>1654</v>
       </c>
       <c r="E23" t="n">
-        <v>5635</v>
+        <v>1636</v>
       </c>
       <c r="F23" t="n">
-        <v>6010</v>
+        <v>1695</v>
       </c>
       <c r="G23" t="n">
-        <v>6426</v>
+        <v>1717</v>
       </c>
       <c r="H23" t="n">
-        <v>6872</v>
+        <v>1731</v>
       </c>
       <c r="I23" t="n">
-        <v>7330</v>
+        <v>1749</v>
       </c>
       <c r="J23" t="n">
-        <v>7808</v>
+        <v>1768</v>
       </c>
       <c r="K23" t="n">
-        <v>8278</v>
+        <v>1788</v>
       </c>
       <c r="L23" t="n">
-        <v>8759</v>
+        <v>1807</v>
       </c>
       <c r="M23" t="n">
-        <v>9215</v>
+        <v>1827</v>
       </c>
       <c r="N23" t="n">
-        <v>9643</v>
+        <v>1847</v>
       </c>
       <c r="O23" t="n">
-        <v>10060</v>
+        <v>1869</v>
       </c>
       <c r="P23" t="n">
-        <v>10443</v>
+        <v>1889</v>
       </c>
       <c r="Q23" t="n">
-        <v>10789</v>
+        <v>1911</v>
       </c>
       <c r="R23" t="n">
-        <v>11125</v>
+        <v>1933</v>
       </c>
       <c r="S23" t="n">
-        <v>11419</v>
+        <v>1960</v>
       </c>
       <c r="T23" t="n">
-        <v>11667</v>
+        <v>1984</v>
       </c>
       <c r="U23" t="n">
-        <v>11901</v>
+        <v>2012</v>
       </c>
       <c r="V23" t="n">
-        <v>12126</v>
+        <v>2038</v>
       </c>
       <c r="W23" t="n">
-        <v>12312</v>
+        <v>2067</v>
       </c>
       <c r="X23" t="n">
-        <v>12488</v>
+        <v>2099</v>
       </c>
       <c r="Y23" t="n">
-        <v>12653</v>
+        <v>2130</v>
       </c>
       <c r="Z23" t="n">
-        <v>12782</v>
+        <v>2164</v>
       </c>
       <c r="AA23" t="n">
-        <v>12902</v>
+        <v>2197</v>
       </c>
       <c r="AB23" t="n">
-        <v>13014</v>
+        <v>2232</v>
       </c>
       <c r="AC23" t="n">
-        <v>13120</v>
+        <v>2267</v>
       </c>
       <c r="AD23" t="n">
-        <v>13224</v>
+        <v>2303</v>
       </c>
       <c r="AE23" t="n">
-        <v>13335</v>
+        <v>2340</v>
       </c>
       <c r="AF23" t="n">
-        <v>13443</v>
+        <v>2382</v>
       </c>
       <c r="AG23" t="n">
-        <v>13522</v>
+        <v>2422</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>2468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>10074</v>
+        <v>1887.58064516129</v>
       </c>
       <c r="D24" t="n">
-        <v>10630</v>
+        <v>654</v>
       </c>
       <c r="E24" t="n">
-        <v>10445</v>
+        <v>717</v>
       </c>
       <c r="F24" t="n">
-        <v>10667</v>
+        <v>786</v>
       </c>
       <c r="G24" t="n">
-        <v>11016</v>
+        <v>855</v>
       </c>
       <c r="H24" t="n">
-        <v>11217</v>
+        <v>934</v>
       </c>
       <c r="I24" t="n">
-        <v>11396</v>
+        <v>1017</v>
       </c>
       <c r="J24" t="n">
-        <v>11565</v>
+        <v>1106</v>
       </c>
       <c r="K24" t="n">
-        <v>11741</v>
+        <v>1195</v>
       </c>
       <c r="L24" t="n">
-        <v>11877</v>
+        <v>1287</v>
       </c>
       <c r="M24" t="n">
-        <v>12005</v>
+        <v>1379</v>
       </c>
       <c r="N24" t="n">
-        <v>12129</v>
+        <v>1473</v>
       </c>
       <c r="O24" t="n">
-        <v>12247</v>
+        <v>1567</v>
       </c>
       <c r="P24" t="n">
-        <v>12343</v>
+        <v>1657</v>
       </c>
       <c r="Q24" t="n">
-        <v>12434</v>
+        <v>1749</v>
       </c>
       <c r="R24" t="n">
-        <v>12513</v>
+        <v>1840</v>
       </c>
       <c r="S24" t="n">
-        <v>12587</v>
+        <v>1929</v>
       </c>
       <c r="T24" t="n">
-        <v>12662</v>
+        <v>2016</v>
       </c>
       <c r="U24" t="n">
-        <v>12742</v>
+        <v>2099</v>
       </c>
       <c r="V24" t="n">
-        <v>12791</v>
+        <v>2186</v>
       </c>
       <c r="W24" t="n">
-        <v>12865</v>
+        <v>2268</v>
       </c>
       <c r="X24" t="n">
-        <v>12940</v>
+        <v>2346</v>
       </c>
       <c r="Y24" t="n">
-        <v>12989</v>
+        <v>2425</v>
       </c>
       <c r="Z24" t="n">
-        <v>13065</v>
+        <v>2499</v>
       </c>
       <c r="AA24" t="n">
-        <v>13113</v>
+        <v>2576</v>
       </c>
       <c r="AB24" t="n">
-        <v>13151</v>
+        <v>2653</v>
       </c>
       <c r="AC24" t="n">
-        <v>13219</v>
+        <v>2726</v>
       </c>
       <c r="AD24" t="n">
-        <v>13266</v>
+        <v>2799</v>
       </c>
       <c r="AE24" t="n">
-        <v>13314</v>
+        <v>2874</v>
       </c>
       <c r="AF24" t="n">
-        <v>13396</v>
+        <v>2952</v>
       </c>
       <c r="AG24" t="n">
-        <v>13449</v>
+        <v>3030</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
-        <v>5942</v>
+        <v>1823.741935483871</v>
       </c>
       <c r="D25" t="n">
-        <v>6199</v>
+        <v>1514</v>
       </c>
       <c r="E25" t="n">
-        <v>6338</v>
+        <v>1580</v>
       </c>
       <c r="F25" t="n">
-        <v>6655</v>
+        <v>1512</v>
       </c>
       <c r="G25" t="n">
-        <v>6950</v>
+        <v>1586</v>
       </c>
       <c r="H25" t="n">
-        <v>7290</v>
+        <v>1603</v>
       </c>
       <c r="I25" t="n">
-        <v>7617</v>
+        <v>1636</v>
       </c>
       <c r="J25" t="n">
-        <v>7978</v>
+        <v>1657</v>
       </c>
       <c r="K25" t="n">
-        <v>8336</v>
+        <v>1682</v>
       </c>
       <c r="L25" t="n">
-        <v>8702</v>
+        <v>1708</v>
       </c>
       <c r="M25" t="n">
-        <v>9067</v>
+        <v>1733</v>
       </c>
       <c r="N25" t="n">
-        <v>9426</v>
+        <v>1760</v>
       </c>
       <c r="O25" t="n">
-        <v>9784</v>
+        <v>1786</v>
       </c>
       <c r="P25" t="n">
-        <v>10116</v>
+        <v>1810</v>
       </c>
       <c r="Q25" t="n">
-        <v>10414</v>
+        <v>1837</v>
       </c>
       <c r="R25" t="n">
-        <v>10700</v>
+        <v>1862</v>
       </c>
       <c r="S25" t="n">
-        <v>10952</v>
+        <v>1888</v>
       </c>
       <c r="T25" t="n">
-        <v>11192</v>
+        <v>1915</v>
       </c>
       <c r="U25" t="n">
-        <v>11402</v>
+        <v>1942</v>
       </c>
       <c r="V25" t="n">
-        <v>11599</v>
+        <v>1971</v>
       </c>
       <c r="W25" t="n">
-        <v>11791</v>
+        <v>2000</v>
       </c>
       <c r="X25" t="n">
-        <v>11952</v>
+        <v>2029</v>
       </c>
       <c r="Y25" t="n">
-        <v>12102</v>
+        <v>2059</v>
       </c>
       <c r="Z25" t="n">
-        <v>12247</v>
+        <v>2090</v>
       </c>
       <c r="AA25" t="n">
-        <v>12354</v>
+        <v>2121</v>
       </c>
       <c r="AB25" t="n">
-        <v>12455</v>
+        <v>2153</v>
       </c>
       <c r="AC25" t="n">
-        <v>12546</v>
+        <v>2185</v>
       </c>
       <c r="AD25" t="n">
-        <v>12638</v>
+        <v>2218</v>
       </c>
       <c r="AE25" t="n">
-        <v>12724</v>
+        <v>2251</v>
       </c>
       <c r="AF25" t="n">
-        <v>12816</v>
+        <v>2293</v>
       </c>
       <c r="AG25" t="n">
-        <v>12913</v>
+        <v>2329</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>2371</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B26" t="n">
         <v>65</v>
       </c>
       <c r="C26" t="n">
-        <v>2956</v>
+        <v>1775.451612903226</v>
       </c>
       <c r="D26" t="n">
-        <v>2858</v>
+        <v>1380</v>
       </c>
       <c r="E26" t="n">
-        <v>3041</v>
+        <v>1394</v>
       </c>
       <c r="F26" t="n">
-        <v>3028</v>
+        <v>1461</v>
       </c>
       <c r="G26" t="n">
-        <v>3087</v>
+        <v>1476</v>
       </c>
       <c r="H26" t="n">
-        <v>3117</v>
+        <v>1504</v>
       </c>
       <c r="I26" t="n">
-        <v>3164</v>
+        <v>1530</v>
       </c>
       <c r="J26" t="n">
-        <v>3201</v>
+        <v>1559</v>
       </c>
       <c r="K26" t="n">
-        <v>3239</v>
+        <v>1586</v>
       </c>
       <c r="L26" t="n">
-        <v>3271</v>
+        <v>1615</v>
       </c>
       <c r="M26" t="n">
-        <v>3306</v>
+        <v>1641</v>
       </c>
       <c r="N26" t="n">
-        <v>3340</v>
+        <v>1671</v>
       </c>
       <c r="O26" t="n">
-        <v>3370</v>
+        <v>1697</v>
       </c>
       <c r="P26" t="n">
-        <v>3399</v>
+        <v>1724</v>
       </c>
       <c r="Q26" t="n">
-        <v>3428</v>
+        <v>1754</v>
       </c>
       <c r="R26" t="n">
-        <v>3456</v>
+        <v>1783</v>
       </c>
       <c r="S26" t="n">
-        <v>3486</v>
+        <v>1811</v>
       </c>
       <c r="T26" t="n">
-        <v>3513</v>
+        <v>1839</v>
       </c>
       <c r="U26" t="n">
-        <v>3542</v>
+        <v>1867</v>
       </c>
       <c r="V26" t="n">
-        <v>3571</v>
+        <v>1896</v>
       </c>
       <c r="W26" t="n">
-        <v>3599</v>
+        <v>1925</v>
       </c>
       <c r="X26" t="n">
-        <v>3629</v>
+        <v>1955</v>
       </c>
       <c r="Y26" t="n">
-        <v>3657</v>
+        <v>1985</v>
       </c>
       <c r="Z26" t="n">
-        <v>3687</v>
+        <v>2017</v>
       </c>
       <c r="AA26" t="n">
-        <v>3716</v>
+        <v>2053</v>
       </c>
       <c r="AB26" t="n">
-        <v>3747</v>
+        <v>2087</v>
       </c>
       <c r="AC26" t="n">
-        <v>3777</v>
+        <v>2125</v>
       </c>
       <c r="AD26" t="n">
-        <v>3806</v>
+        <v>2161</v>
       </c>
       <c r="AE26" t="n">
-        <v>3835</v>
+        <v>2200</v>
       </c>
       <c r="AF26" t="n">
-        <v>3867</v>
+        <v>2238</v>
       </c>
       <c r="AG26" t="n">
-        <v>3899</v>
+        <v>2279</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2322</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C27" t="n">
-        <v>512</v>
+        <v>1319.612903225806</v>
       </c>
       <c r="D27" t="n">
-        <v>528</v>
+        <v>763</v>
       </c>
       <c r="E27" t="n">
-        <v>544</v>
+        <v>811</v>
       </c>
       <c r="F27" t="n">
-        <v>540</v>
+        <v>871</v>
       </c>
       <c r="G27" t="n">
-        <v>558</v>
+        <v>887</v>
       </c>
       <c r="H27" t="n">
-        <v>574</v>
+        <v>925</v>
       </c>
       <c r="I27" t="n">
-        <v>592</v>
+        <v>964</v>
       </c>
       <c r="J27" t="n">
-        <v>608</v>
+        <v>1008</v>
       </c>
       <c r="K27" t="n">
-        <v>630</v>
+        <v>1049</v>
       </c>
       <c r="L27" t="n">
-        <v>652</v>
+        <v>1092</v>
       </c>
       <c r="M27" t="n">
-        <v>676</v>
+        <v>1138</v>
       </c>
       <c r="N27" t="n">
-        <v>706</v>
+        <v>1184</v>
       </c>
       <c r="O27" t="n">
-        <v>736</v>
+        <v>1231</v>
       </c>
       <c r="P27" t="n">
-        <v>772</v>
+        <v>1277</v>
       </c>
       <c r="Q27" t="n">
-        <v>812</v>
+        <v>1324</v>
       </c>
       <c r="R27" t="n">
-        <v>856</v>
+        <v>1370</v>
       </c>
       <c r="S27" t="n">
-        <v>908</v>
+        <v>1416</v>
       </c>
       <c r="T27" t="n">
-        <v>966</v>
+        <v>1461</v>
       </c>
       <c r="U27" t="n">
-        <v>1034</v>
+        <v>1505</v>
       </c>
       <c r="V27" t="n">
-        <v>1110</v>
+        <v>1551</v>
       </c>
       <c r="W27" t="n">
-        <v>1198</v>
+        <v>1595</v>
       </c>
       <c r="X27" t="n">
-        <v>1296</v>
+        <v>1639</v>
       </c>
       <c r="Y27" t="n">
-        <v>1410</v>
+        <v>1681</v>
       </c>
       <c r="Z27" t="n">
-        <v>1536</v>
+        <v>1722</v>
       </c>
       <c r="AA27" t="n">
-        <v>1676</v>
+        <v>1765</v>
       </c>
       <c r="AB27" t="n">
-        <v>1826</v>
+        <v>1808</v>
       </c>
       <c r="AC27" t="n">
-        <v>1988</v>
+        <v>1848</v>
       </c>
       <c r="AD27" t="n">
-        <v>2162</v>
+        <v>1888</v>
       </c>
       <c r="AE27" t="n">
-        <v>2340</v>
+        <v>1930</v>
       </c>
       <c r="AF27" t="n">
-        <v>2528</v>
+        <v>1970</v>
       </c>
       <c r="AG27" t="n">
-        <v>2714</v>
+        <v>2013</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2057</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
         <v>65</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>1299.096774193548</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>1151</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>1163</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>1214</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>1255</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>1285</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>1322</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>1354</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>1387</v>
       </c>
       <c r="M28" t="n">
-        <v>8</v>
+        <v>1423</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>1458</v>
       </c>
       <c r="O28" t="n">
-        <v>9</v>
+        <v>1494</v>
       </c>
       <c r="P28" t="n">
-        <v>9</v>
+        <v>1526</v>
       </c>
       <c r="Q28" t="n">
-        <v>9</v>
+        <v>1559</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>1593</v>
       </c>
       <c r="S28" t="n">
-        <v>11</v>
+        <v>1627</v>
       </c>
       <c r="T28" t="n">
-        <v>11</v>
+        <v>1660</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>1692</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>1725</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>1759</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>1789</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>1820</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>1851</v>
       </c>
       <c r="AA28" t="n">
-        <v>12</v>
+        <v>1884</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>1916</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>1947</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>1977</v>
       </c>
       <c r="AE28" t="n">
-        <v>14</v>
+        <v>2008</v>
       </c>
       <c r="AF28" t="n">
-        <v>14</v>
+        <v>2040</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>2073</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>2107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B29" t="n">
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>498</v>
+        <v>1242.193548387097</v>
       </c>
       <c r="D29" t="n">
-        <v>464</v>
+        <v>11209</v>
       </c>
       <c r="E29" t="n">
-        <v>531</v>
+        <v>11785</v>
       </c>
       <c r="F29" t="n">
-        <v>534</v>
+        <v>12244</v>
       </c>
       <c r="G29" t="n">
-        <v>558</v>
+        <v>14185</v>
       </c>
       <c r="H29" t="n">
-        <v>579</v>
+        <v>13227</v>
       </c>
       <c r="I29" t="n">
-        <v>608</v>
+        <v>13200</v>
       </c>
       <c r="J29" t="n">
-        <v>636</v>
+        <v>13493</v>
       </c>
       <c r="K29" t="n">
-        <v>670</v>
+        <v>13790</v>
       </c>
       <c r="L29" t="n">
-        <v>705</v>
+        <v>13793</v>
       </c>
       <c r="M29" t="n">
-        <v>747</v>
+        <v>13871</v>
       </c>
       <c r="N29" t="n">
-        <v>791</v>
+        <v>13964</v>
       </c>
       <c r="O29" t="n">
-        <v>839</v>
+        <v>14051</v>
       </c>
       <c r="P29" t="n">
-        <v>893</v>
+        <v>14105</v>
       </c>
       <c r="Q29" t="n">
-        <v>950</v>
+        <v>14175</v>
       </c>
       <c r="R29" t="n">
-        <v>1014</v>
+        <v>14216</v>
       </c>
       <c r="S29" t="n">
-        <v>1084</v>
+        <v>14293</v>
       </c>
       <c r="T29" t="n">
-        <v>1155</v>
+        <v>14317</v>
       </c>
       <c r="U29" t="n">
-        <v>1235</v>
+        <v>14334</v>
       </c>
       <c r="V29" t="n">
-        <v>1316</v>
+        <v>14350</v>
       </c>
       <c r="W29" t="n">
-        <v>1401</v>
+        <v>14398</v>
       </c>
       <c r="X29" t="n">
-        <v>1492</v>
+        <v>14410</v>
       </c>
       <c r="Y29" t="n">
-        <v>1587</v>
+        <v>14431</v>
       </c>
       <c r="Z29" t="n">
-        <v>1684</v>
+        <v>14450</v>
       </c>
       <c r="AA29" t="n">
-        <v>1787</v>
+        <v>14453</v>
       </c>
       <c r="AB29" t="n">
-        <v>1890</v>
+        <v>14456</v>
       </c>
       <c r="AC29" t="n">
-        <v>1998</v>
+        <v>14463</v>
       </c>
       <c r="AD29" t="n">
-        <v>2112</v>
+        <v>14467</v>
       </c>
       <c r="AE29" t="n">
-        <v>2228</v>
+        <v>14479</v>
       </c>
       <c r="AF29" t="n">
-        <v>2347</v>
+        <v>14489</v>
       </c>
       <c r="AG29" t="n">
-        <v>2474</v>
+        <v>14497</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>14506</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>112</v>
+        <v>1099.193548387097</v>
       </c>
       <c r="D30" t="n">
-        <v>110</v>
+        <v>1542</v>
       </c>
       <c r="E30" t="n">
-        <v>104</v>
+        <v>1576</v>
       </c>
       <c r="F30" t="n">
-        <v>102</v>
+        <v>1564</v>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>1616</v>
       </c>
       <c r="H30" t="n">
-        <v>98</v>
+        <v>1658</v>
       </c>
       <c r="I30" t="n">
-        <v>94</v>
+        <v>1698</v>
       </c>
       <c r="J30" t="n">
-        <v>92</v>
+        <v>1740</v>
       </c>
       <c r="K30" t="n">
-        <v>91</v>
+        <v>1784</v>
       </c>
       <c r="L30" t="n">
-        <v>89</v>
+        <v>1826</v>
       </c>
       <c r="M30" t="n">
-        <v>88</v>
+        <v>1870</v>
       </c>
       <c r="N30" t="n">
-        <v>85</v>
+        <v>1914</v>
       </c>
       <c r="O30" t="n">
-        <v>84</v>
+        <v>1960</v>
       </c>
       <c r="P30" t="n">
-        <v>83</v>
+        <v>2006</v>
       </c>
       <c r="Q30" t="n">
-        <v>82</v>
+        <v>2052</v>
       </c>
       <c r="R30" t="n">
-        <v>81</v>
+        <v>2100</v>
       </c>
       <c r="S30" t="n">
-        <v>80</v>
+        <v>2150</v>
       </c>
       <c r="T30" t="n">
-        <v>79</v>
+        <v>2202</v>
       </c>
       <c r="U30" t="n">
-        <v>78</v>
+        <v>2254</v>
       </c>
       <c r="V30" t="n">
-        <v>76</v>
+        <v>2306</v>
       </c>
       <c r="W30" t="n">
-        <v>75</v>
+        <v>2360</v>
       </c>
       <c r="X30" t="n">
-        <v>75</v>
+        <v>2416</v>
       </c>
       <c r="Y30" t="n">
-        <v>74</v>
+        <v>2474</v>
       </c>
       <c r="Z30" t="n">
-        <v>73</v>
+        <v>2532</v>
       </c>
       <c r="AA30" t="n">
-        <v>73</v>
+        <v>2592</v>
       </c>
       <c r="AB30" t="n">
-        <v>72</v>
+        <v>2654</v>
       </c>
       <c r="AC30" t="n">
-        <v>71</v>
+        <v>2716</v>
       </c>
       <c r="AD30" t="n">
-        <v>71</v>
+        <v>2782</v>
       </c>
       <c r="AE30" t="n">
-        <v>70</v>
+        <v>2848</v>
       </c>
       <c r="AF30" t="n">
-        <v>70</v>
+        <v>2916</v>
       </c>
       <c r="AG30" t="n">
-        <v>69</v>
+        <v>2984</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>3058</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>24834</v>
+        <v>1020.612903225806</v>
       </c>
       <c r="D31" t="n">
-        <v>24209</v>
+        <v>787</v>
       </c>
       <c r="E31" t="n">
-        <v>22875</v>
+        <v>895</v>
       </c>
       <c r="F31" t="n">
-        <v>21856</v>
+        <v>941</v>
       </c>
       <c r="G31" t="n">
-        <v>20973</v>
+        <v>1038</v>
       </c>
       <c r="H31" t="n">
-        <v>20261</v>
+        <v>1122</v>
       </c>
       <c r="I31" t="n">
-        <v>19517</v>
+        <v>1218</v>
       </c>
       <c r="J31" t="n">
-        <v>18860</v>
+        <v>1306</v>
       </c>
       <c r="K31" t="n">
-        <v>18271</v>
+        <v>1398</v>
       </c>
       <c r="L31" t="n">
-        <v>17723</v>
+        <v>1489</v>
       </c>
       <c r="M31" t="n">
-        <v>17230</v>
+        <v>1579</v>
       </c>
       <c r="N31" t="n">
-        <v>16744</v>
+        <v>1666</v>
       </c>
       <c r="O31" t="n">
-        <v>16293</v>
+        <v>1752</v>
       </c>
       <c r="P31" t="n">
-        <v>15868</v>
+        <v>1836</v>
       </c>
       <c r="Q31" t="n">
-        <v>15485</v>
+        <v>1918</v>
       </c>
       <c r="R31" t="n">
-        <v>15070</v>
+        <v>1999</v>
       </c>
       <c r="S31" t="n">
-        <v>14712</v>
+        <v>2077</v>
       </c>
       <c r="T31" t="n">
-        <v>14364</v>
+        <v>2153</v>
       </c>
       <c r="U31" t="n">
-        <v>14032</v>
+        <v>2230</v>
       </c>
       <c r="V31" t="n">
-        <v>13717</v>
+        <v>2303</v>
       </c>
       <c r="W31" t="n">
-        <v>13410</v>
+        <v>2376</v>
       </c>
       <c r="X31" t="n">
-        <v>13108</v>
+        <v>2450</v>
       </c>
       <c r="Y31" t="n">
-        <v>12809</v>
+        <v>2521</v>
       </c>
       <c r="Z31" t="n">
-        <v>12519</v>
+        <v>2593</v>
       </c>
       <c r="AA31" t="n">
-        <v>12235</v>
+        <v>2665</v>
       </c>
       <c r="AB31" t="n">
-        <v>11953</v>
+        <v>2738</v>
       </c>
       <c r="AC31" t="n">
-        <v>11705</v>
+        <v>2813</v>
       </c>
       <c r="AD31" t="n">
-        <v>11442</v>
+        <v>2890</v>
       </c>
       <c r="AE31" t="n">
-        <v>11203</v>
+        <v>2970</v>
       </c>
       <c r="AF31" t="n">
-        <v>10977</v>
+        <v>3052</v>
       </c>
       <c r="AG31" t="n">
-        <v>10755</v>
+        <v>3135</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>3221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>43</v>
+        <v>953.2903225806451</v>
       </c>
       <c r="D32" t="n">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="E32" t="n">
-        <v>43</v>
+        <v>504</v>
       </c>
       <c r="F32" t="n">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="G32" t="n">
-        <v>43</v>
+        <v>524</v>
       </c>
       <c r="H32" t="n">
-        <v>43</v>
+        <v>547</v>
       </c>
       <c r="I32" t="n">
-        <v>44</v>
+        <v>573</v>
       </c>
       <c r="J32" t="n">
-        <v>44</v>
+        <v>599</v>
       </c>
       <c r="K32" t="n">
-        <v>43</v>
+        <v>627</v>
       </c>
       <c r="L32" t="n">
-        <v>43</v>
+        <v>658</v>
       </c>
       <c r="M32" t="n">
-        <v>44</v>
+        <v>691</v>
       </c>
       <c r="N32" t="n">
-        <v>44</v>
+        <v>727</v>
       </c>
       <c r="O32" t="n">
-        <v>43</v>
+        <v>765</v>
       </c>
       <c r="P32" t="n">
-        <v>44</v>
+        <v>807</v>
       </c>
       <c r="Q32" t="n">
-        <v>44</v>
+        <v>853</v>
       </c>
       <c r="R32" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="S32" t="n">
-        <v>44</v>
+        <v>948</v>
       </c>
       <c r="T32" t="n">
-        <v>45</v>
+        <v>999</v>
       </c>
       <c r="U32" t="n">
-        <v>44</v>
+        <v>1051</v>
       </c>
       <c r="V32" t="n">
-        <v>44</v>
+        <v>1104</v>
       </c>
       <c r="W32" t="n">
-        <v>44</v>
+        <v>1161</v>
       </c>
       <c r="X32" t="n">
-        <v>44</v>
+        <v>1216</v>
       </c>
       <c r="Y32" t="n">
-        <v>45</v>
+        <v>1273</v>
       </c>
       <c r="Z32" t="n">
-        <v>45</v>
+        <v>1330</v>
       </c>
       <c r="AA32" t="n">
-        <v>45</v>
+        <v>1384</v>
       </c>
       <c r="AB32" t="n">
-        <v>45</v>
+        <v>1438</v>
       </c>
       <c r="AC32" t="n">
-        <v>44</v>
+        <v>1494</v>
       </c>
       <c r="AD32" t="n">
-        <v>44</v>
+        <v>1549</v>
       </c>
       <c r="AE32" t="n">
-        <v>45</v>
+        <v>1601</v>
       </c>
       <c r="AF32" t="n">
-        <v>45</v>
+        <v>1653</v>
       </c>
       <c r="AG32" t="n">
-        <v>45</v>
+        <v>1706</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1757</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>2830</v>
+        <v>711.0322580645161</v>
       </c>
       <c r="D33" t="n">
-        <v>2683</v>
+        <v>697</v>
       </c>
       <c r="E33" t="n">
-        <v>2769</v>
+        <v>721</v>
       </c>
       <c r="F33" t="n">
-        <v>2749</v>
+        <v>749</v>
       </c>
       <c r="G33" t="n">
-        <v>2750</v>
+        <v>777</v>
       </c>
       <c r="H33" t="n">
-        <v>2736</v>
+        <v>809</v>
       </c>
       <c r="I33" t="n">
-        <v>2740</v>
+        <v>845</v>
       </c>
       <c r="J33" t="n">
-        <v>2738</v>
+        <v>885</v>
       </c>
       <c r="K33" t="n">
-        <v>2740</v>
+        <v>928</v>
       </c>
       <c r="L33" t="n">
-        <v>2740</v>
+        <v>976</v>
       </c>
       <c r="M33" t="n">
-        <v>2742</v>
+        <v>1029</v>
       </c>
       <c r="N33" t="n">
-        <v>2747</v>
+        <v>1085</v>
       </c>
       <c r="O33" t="n">
-        <v>2755</v>
+        <v>1146</v>
       </c>
       <c r="P33" t="n">
-        <v>2762</v>
+        <v>1213</v>
       </c>
       <c r="Q33" t="n">
-        <v>2770</v>
+        <v>1286</v>
       </c>
       <c r="R33" t="n">
-        <v>2777</v>
+        <v>1362</v>
       </c>
       <c r="S33" t="n">
-        <v>2785</v>
+        <v>1443</v>
       </c>
       <c r="T33" t="n">
-        <v>2793</v>
+        <v>1528</v>
       </c>
       <c r="U33" t="n">
-        <v>2800</v>
+        <v>1617</v>
       </c>
       <c r="V33" t="n">
+        <v>1710</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1807</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1906</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2008</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2110</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2211</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>2312</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2414</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2513</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2614</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>2711</v>
+      </c>
+      <c r="AG33" t="n">
         <v>2806</v>
       </c>
-      <c r="W33" t="n">
-        <v>2816</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2824</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2835</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>2850</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2861</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>2875</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>2889</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AH33" t="n">
         <v>2901</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>2915</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2927</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2939</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>564.3225806451613</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>528</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>540</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>558</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>574</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>592</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>630</v>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>652</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>676</v>
       </c>
       <c r="O34" t="n">
-        <v>6</v>
+        <v>706</v>
       </c>
       <c r="P34" t="n">
-        <v>6</v>
+        <v>736</v>
       </c>
       <c r="Q34" t="n">
-        <v>6</v>
+        <v>772</v>
       </c>
       <c r="R34" t="n">
-        <v>6</v>
+        <v>812</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>856</v>
       </c>
       <c r="T34" t="n">
-        <v>8</v>
+        <v>908</v>
       </c>
       <c r="U34" t="n">
-        <v>8</v>
+        <v>966</v>
       </c>
       <c r="V34" t="n">
-        <v>8</v>
+        <v>1034</v>
       </c>
       <c r="W34" t="n">
-        <v>8</v>
+        <v>1110</v>
       </c>
       <c r="X34" t="n">
-        <v>8</v>
+        <v>1198</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>1296</v>
       </c>
       <c r="Z34" t="n">
-        <v>8</v>
+        <v>1410</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>1536</v>
       </c>
       <c r="AB34" t="n">
-        <v>9</v>
+        <v>1676</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>1826</v>
       </c>
       <c r="AD34" t="n">
-        <v>9</v>
+        <v>1988</v>
       </c>
       <c r="AE34" t="n">
-        <v>9</v>
+        <v>2162</v>
       </c>
       <c r="AF34" t="n">
-        <v>10</v>
+        <v>2340</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>2528</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>2714</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B35" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>328.4516129032258</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>958</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>1003</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>1006</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>1013</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>1020</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>1026</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>1031</v>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>1037</v>
       </c>
       <c r="M35" t="n">
-        <v>9</v>
+        <v>1043</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>1048</v>
       </c>
       <c r="O35" t="n">
-        <v>9</v>
+        <v>1054</v>
       </c>
       <c r="P35" t="n">
-        <v>9</v>
+        <v>1059</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="R35" t="n">
-        <v>10</v>
+        <v>1070</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>1076</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>1082</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>1087</v>
       </c>
       <c r="V35" t="n">
-        <v>11</v>
+        <v>1093</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>1099</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>1105</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>1109</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>1115</v>
       </c>
       <c r="AA35" t="n">
-        <v>12</v>
+        <v>1120</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>1125</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>1130</v>
       </c>
       <c r="AD35" t="n">
-        <v>14</v>
+        <v>1136</v>
       </c>
       <c r="AE35" t="n">
-        <v>14</v>
+        <v>1140</v>
       </c>
       <c r="AF35" t="n">
-        <v>14</v>
+        <v>1145</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>1150</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C36" t="n">
-        <v>697</v>
+        <v>110.9677419354839</v>
       </c>
       <c r="D36" t="n">
-        <v>721</v>
+        <v>121</v>
       </c>
       <c r="E36" t="n">
-        <v>749</v>
+        <v>121</v>
       </c>
       <c r="F36" t="n">
-        <v>777</v>
+        <v>115</v>
       </c>
       <c r="G36" t="n">
-        <v>809</v>
+        <v>120</v>
       </c>
       <c r="H36" t="n">
-        <v>845</v>
+        <v>122</v>
       </c>
       <c r="I36" t="n">
-        <v>885</v>
+        <v>124</v>
       </c>
       <c r="J36" t="n">
-        <v>928</v>
+        <v>124</v>
       </c>
       <c r="K36" t="n">
-        <v>976</v>
+        <v>125</v>
       </c>
       <c r="L36" t="n">
-        <v>1029</v>
+        <v>127</v>
       </c>
       <c r="M36" t="n">
-        <v>1085</v>
+        <v>128</v>
       </c>
       <c r="N36" t="n">
-        <v>1146</v>
+        <v>130</v>
       </c>
       <c r="O36" t="n">
-        <v>1213</v>
+        <v>131</v>
       </c>
       <c r="P36" t="n">
-        <v>1286</v>
+        <v>132</v>
       </c>
       <c r="Q36" t="n">
-        <v>1362</v>
+        <v>133</v>
       </c>
       <c r="R36" t="n">
-        <v>1443</v>
+        <v>134</v>
       </c>
       <c r="S36" t="n">
-        <v>1528</v>
+        <v>136</v>
       </c>
       <c r="T36" t="n">
-        <v>1617</v>
+        <v>136</v>
       </c>
       <c r="U36" t="n">
-        <v>1710</v>
+        <v>137</v>
       </c>
       <c r="V36" t="n">
-        <v>1807</v>
+        <v>139</v>
       </c>
       <c r="W36" t="n">
-        <v>1906</v>
+        <v>139</v>
       </c>
       <c r="X36" t="n">
-        <v>2008</v>
+        <v>140</v>
       </c>
       <c r="Y36" t="n">
-        <v>2110</v>
+        <v>142</v>
       </c>
       <c r="Z36" t="n">
-        <v>2211</v>
+        <v>142</v>
       </c>
       <c r="AA36" t="n">
-        <v>2312</v>
+        <v>143</v>
       </c>
       <c r="AB36" t="n">
-        <v>2414</v>
+        <v>143</v>
       </c>
       <c r="AC36" t="n">
-        <v>2513</v>
+        <v>145</v>
       </c>
       <c r="AD36" t="n">
-        <v>2614</v>
+        <v>145</v>
       </c>
       <c r="AE36" t="n">
-        <v>2711</v>
+        <v>145</v>
       </c>
       <c r="AF36" t="n">
-        <v>2806</v>
+        <v>146</v>
       </c>
       <c r="AG36" t="n">
-        <v>2901</v>
+        <v>146</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B37" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>465</v>
+        <v>84.06451612903226</v>
       </c>
       <c r="D37" t="n">
-        <v>504</v>
+        <v>116</v>
       </c>
       <c r="E37" t="n">
-        <v>512</v>
+        <v>119</v>
       </c>
       <c r="F37" t="n">
-        <v>524</v>
+        <v>122</v>
       </c>
       <c r="G37" t="n">
-        <v>547</v>
+        <v>124</v>
       </c>
       <c r="H37" t="n">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="I37" t="n">
-        <v>599</v>
+        <v>129</v>
       </c>
       <c r="J37" t="n">
-        <v>627</v>
+        <v>132</v>
       </c>
       <c r="K37" t="n">
-        <v>658</v>
+        <v>134</v>
       </c>
       <c r="L37" t="n">
-        <v>691</v>
+        <v>138</v>
       </c>
       <c r="M37" t="n">
-        <v>727</v>
+        <v>140</v>
       </c>
       <c r="N37" t="n">
-        <v>765</v>
+        <v>143</v>
       </c>
       <c r="O37" t="n">
-        <v>807</v>
+        <v>146</v>
       </c>
       <c r="P37" t="n">
-        <v>853</v>
+        <v>149</v>
       </c>
       <c r="Q37" t="n">
-        <v>900</v>
+        <v>152</v>
       </c>
       <c r="R37" t="n">
-        <v>948</v>
+        <v>155</v>
       </c>
       <c r="S37" t="n">
-        <v>999</v>
+        <v>158</v>
       </c>
       <c r="T37" t="n">
-        <v>1051</v>
+        <v>161</v>
       </c>
       <c r="U37" t="n">
-        <v>1104</v>
+        <v>165</v>
       </c>
       <c r="V37" t="n">
-        <v>1161</v>
+        <v>168</v>
       </c>
       <c r="W37" t="n">
-        <v>1216</v>
+        <v>170</v>
       </c>
       <c r="X37" t="n">
-        <v>1273</v>
+        <v>174</v>
       </c>
       <c r="Y37" t="n">
-        <v>1330</v>
+        <v>178</v>
       </c>
       <c r="Z37" t="n">
-        <v>1384</v>
+        <v>181</v>
       </c>
       <c r="AA37" t="n">
-        <v>1438</v>
+        <v>184</v>
       </c>
       <c r="AB37" t="n">
-        <v>1494</v>
+        <v>187</v>
       </c>
       <c r="AC37" t="n">
-        <v>1549</v>
+        <v>190</v>
       </c>
       <c r="AD37" t="n">
-        <v>1601</v>
+        <v>193</v>
       </c>
       <c r="AE37" t="n">
-        <v>1653</v>
+        <v>196</v>
       </c>
       <c r="AF37" t="n">
-        <v>1706</v>
+        <v>200</v>
       </c>
       <c r="AG37" t="n">
-        <v>1757</v>
+        <v>203</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B38" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>763</v>
+        <v>45.19354838709678</v>
       </c>
       <c r="D38" t="n">
-        <v>811</v>
+        <v>622</v>
       </c>
       <c r="E38" t="n">
-        <v>871</v>
+        <v>646</v>
       </c>
       <c r="F38" t="n">
-        <v>887</v>
+        <v>669</v>
       </c>
       <c r="G38" t="n">
-        <v>925</v>
+        <v>695</v>
       </c>
       <c r="H38" t="n">
-        <v>964</v>
+        <v>723</v>
       </c>
       <c r="I38" t="n">
-        <v>1008</v>
+        <v>754</v>
       </c>
       <c r="J38" t="n">
-        <v>1049</v>
+        <v>786</v>
       </c>
       <c r="K38" t="n">
-        <v>1092</v>
+        <v>821</v>
       </c>
       <c r="L38" t="n">
-        <v>1138</v>
+        <v>858</v>
       </c>
       <c r="M38" t="n">
-        <v>1184</v>
+        <v>897</v>
       </c>
       <c r="N38" t="n">
-        <v>1231</v>
+        <v>938</v>
       </c>
       <c r="O38" t="n">
-        <v>1277</v>
+        <v>983</v>
       </c>
       <c r="P38" t="n">
-        <v>1324</v>
+        <v>1029</v>
       </c>
       <c r="Q38" t="n">
-        <v>1370</v>
+        <v>1078</v>
       </c>
       <c r="R38" t="n">
-        <v>1416</v>
+        <v>1129</v>
       </c>
       <c r="S38" t="n">
-        <v>1461</v>
+        <v>1183</v>
       </c>
       <c r="T38" t="n">
-        <v>1505</v>
+        <v>1239</v>
       </c>
       <c r="U38" t="n">
-        <v>1551</v>
+        <v>1298</v>
       </c>
       <c r="V38" t="n">
-        <v>1595</v>
+        <v>1360</v>
       </c>
       <c r="W38" t="n">
-        <v>1639</v>
+        <v>1425</v>
       </c>
       <c r="X38" t="n">
-        <v>1681</v>
+        <v>1492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1722</v>
+        <v>1561</v>
       </c>
       <c r="Z38" t="n">
-        <v>1765</v>
+        <v>1633</v>
       </c>
       <c r="AA38" t="n">
-        <v>1808</v>
+        <v>1709</v>
       </c>
       <c r="AB38" t="n">
-        <v>1848</v>
+        <v>1787</v>
       </c>
       <c r="AC38" t="n">
-        <v>1888</v>
+        <v>1870</v>
       </c>
       <c r="AD38" t="n">
-        <v>1930</v>
+        <v>1956</v>
       </c>
       <c r="AE38" t="n">
-        <v>1970</v>
+        <v>2047</v>
       </c>
       <c r="AF38" t="n">
-        <v>2013</v>
+        <v>2142</v>
       </c>
       <c r="AG38" t="n">
-        <v>2057</v>
+        <v>2242</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B39" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>1947</v>
+        <v>43.64516129032258</v>
       </c>
       <c r="D39" t="n">
-        <v>1922</v>
+        <v>498</v>
       </c>
       <c r="E39" t="n">
-        <v>1976</v>
+        <v>464</v>
       </c>
       <c r="F39" t="n">
-        <v>1950</v>
+        <v>531</v>
       </c>
       <c r="G39" t="n">
-        <v>1977</v>
+        <v>534</v>
       </c>
       <c r="H39" t="n">
-        <v>1990</v>
+        <v>558</v>
       </c>
       <c r="I39" t="n">
-        <v>2007</v>
+        <v>579</v>
       </c>
       <c r="J39" t="n">
-        <v>2018</v>
+        <v>608</v>
       </c>
       <c r="K39" t="n">
-        <v>2035</v>
+        <v>636</v>
       </c>
       <c r="L39" t="n">
-        <v>2051</v>
+        <v>670</v>
       </c>
       <c r="M39" t="n">
-        <v>2068</v>
+        <v>705</v>
       </c>
       <c r="N39" t="n">
-        <v>2085</v>
+        <v>747</v>
       </c>
       <c r="O39" t="n">
-        <v>2103</v>
+        <v>791</v>
       </c>
       <c r="P39" t="n">
-        <v>2119</v>
+        <v>839</v>
       </c>
       <c r="Q39" t="n">
-        <v>2136</v>
+        <v>893</v>
       </c>
       <c r="R39" t="n">
-        <v>2154</v>
+        <v>950</v>
       </c>
       <c r="S39" t="n">
-        <v>2177</v>
+        <v>1014</v>
       </c>
       <c r="T39" t="n">
-        <v>2197</v>
+        <v>1084</v>
       </c>
       <c r="U39" t="n">
-        <v>2221</v>
+        <v>1155</v>
       </c>
       <c r="V39" t="n">
-        <v>2241</v>
+        <v>1235</v>
       </c>
       <c r="W39" t="n">
-        <v>2266</v>
+        <v>1316</v>
       </c>
       <c r="X39" t="n">
-        <v>2292</v>
+        <v>1401</v>
       </c>
       <c r="Y39" t="n">
-        <v>2319</v>
+        <v>1492</v>
       </c>
       <c r="Z39" t="n">
+        <v>1587</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1684</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1787</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1890</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2112</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2228</v>
+      </c>
+      <c r="AG39" t="n">
         <v>2347</v>
       </c>
-      <c r="AA39" t="n">
-        <v>2375</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>2404</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>2432</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>2462</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>2491</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>2522</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>2553</v>
+      <c r="AH39" t="n">
+        <v>2474</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>52</v>
+      </c>
+      <c r="B40" t="n">
+        <v>65</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40.16129032258065</v>
+      </c>
+      <c r="D40" t="n">
+        <v>46</v>
+      </c>
+      <c r="E40" t="n">
+        <v>49</v>
+      </c>
+      <c r="F40" t="n">
+        <v>50</v>
+      </c>
+      <c r="G40" t="n">
+        <v>50</v>
+      </c>
+      <c r="H40" t="n">
+        <v>49</v>
+      </c>
+      <c r="I40" t="n">
+        <v>50</v>
+      </c>
+      <c r="J40" t="n">
+        <v>50</v>
+      </c>
+      <c r="K40" t="n">
+        <v>49</v>
+      </c>
+      <c r="L40" t="n">
+        <v>49</v>
+      </c>
+      <c r="M40" t="n">
+        <v>49</v>
+      </c>
+      <c r="N40" t="n">
+        <v>48</v>
+      </c>
+      <c r="O40" t="n">
+        <v>48</v>
+      </c>
+      <c r="P40" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>47</v>
+      </c>
+      <c r="R40" t="n">
+        <v>47</v>
+      </c>
+      <c r="S40" t="n">
+        <v>47</v>
+      </c>
+      <c r="T40" t="n">
+        <v>47</v>
+      </c>
+      <c r="U40" t="n">
+        <v>47</v>
+      </c>
+      <c r="V40" t="n">
+        <v>46</v>
+      </c>
+      <c r="W40" t="n">
+        <v>46</v>
+      </c>
+      <c r="X40" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y40" t="n">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
-        <v>81</v>
-      </c>
-      <c r="C40" t="n">
-        <v>477</v>
-      </c>
-      <c r="D40" t="n">
-        <v>483</v>
-      </c>
-      <c r="E40" t="n">
-        <v>489</v>
-      </c>
-      <c r="F40" t="n">
-        <v>494</v>
-      </c>
-      <c r="G40" t="n">
-        <v>501</v>
-      </c>
-      <c r="H40" t="n">
-        <v>509</v>
-      </c>
-      <c r="I40" t="n">
-        <v>516</v>
-      </c>
-      <c r="J40" t="n">
-        <v>524</v>
-      </c>
-      <c r="K40" t="n">
-        <v>533</v>
-      </c>
-      <c r="L40" t="n">
-        <v>540</v>
-      </c>
-      <c r="M40" t="n">
-        <v>550</v>
-      </c>
-      <c r="N40" t="n">
-        <v>559</v>
-      </c>
-      <c r="O40" t="n">
-        <v>569</v>
-      </c>
-      <c r="P40" t="n">
-        <v>580</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>590</v>
-      </c>
-      <c r="R40" t="n">
-        <v>602</v>
-      </c>
-      <c r="S40" t="n">
-        <v>614</v>
-      </c>
-      <c r="T40" t="n">
-        <v>626</v>
-      </c>
-      <c r="U40" t="n">
-        <v>639</v>
-      </c>
-      <c r="V40" t="n">
-        <v>653</v>
-      </c>
-      <c r="W40" t="n">
-        <v>666</v>
-      </c>
-      <c r="X40" t="n">
-        <v>680</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>696</v>
-      </c>
       <c r="Z40" t="n">
-        <v>712</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="n">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="n">
-        <v>744</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="n">
-        <v>761</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="n">
-        <v>779</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="n">
-        <v>794</v>
+        <v>44</v>
       </c>
       <c r="AF40" t="n">
-        <v>812</v>
+        <v>43</v>
       </c>
       <c r="AG40" t="n">
-        <v>830</v>
+        <v>43</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B41" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C41" t="n">
-        <v>1151</v>
+        <v>35.87096774193548</v>
       </c>
       <c r="D41" t="n">
-        <v>1163</v>
+        <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>1212</v>
+        <v>41</v>
       </c>
       <c r="F41" t="n">
-        <v>1214</v>
+        <v>40</v>
       </c>
       <c r="G41" t="n">
-        <v>1255</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>1285</v>
+        <v>40</v>
       </c>
       <c r="I41" t="n">
-        <v>1322</v>
+        <v>40</v>
       </c>
       <c r="J41" t="n">
-        <v>1354</v>
+        <v>41</v>
       </c>
       <c r="K41" t="n">
-        <v>1387</v>
+        <v>40</v>
       </c>
       <c r="L41" t="n">
-        <v>1423</v>
+        <v>40</v>
       </c>
       <c r="M41" t="n">
-        <v>1458</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>1494</v>
+        <v>40</v>
       </c>
       <c r="O41" t="n">
-        <v>1526</v>
+        <v>40</v>
       </c>
       <c r="P41" t="n">
-        <v>1559</v>
+        <v>40</v>
       </c>
       <c r="Q41" t="n">
-        <v>1593</v>
+        <v>40</v>
       </c>
       <c r="R41" t="n">
-        <v>1627</v>
+        <v>39</v>
       </c>
       <c r="S41" t="n">
-        <v>1660</v>
+        <v>39</v>
       </c>
       <c r="T41" t="n">
-        <v>1692</v>
+        <v>39</v>
       </c>
       <c r="U41" t="n">
-        <v>1725</v>
+        <v>39</v>
       </c>
       <c r="V41" t="n">
-        <v>1759</v>
+        <v>39</v>
       </c>
       <c r="W41" t="n">
-        <v>1789</v>
+        <v>38</v>
       </c>
       <c r="X41" t="n">
-        <v>1820</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="n">
-        <v>1851</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="n">
-        <v>1884</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="n">
-        <v>1916</v>
+        <v>37</v>
       </c>
       <c r="AB41" t="n">
-        <v>1947</v>
+        <v>37</v>
       </c>
       <c r="AC41" t="n">
-        <v>1977</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="n">
-        <v>2008</v>
+        <v>36</v>
       </c>
       <c r="AE41" t="n">
-        <v>2040</v>
+        <v>36</v>
       </c>
       <c r="AF41" t="n">
-        <v>2073</v>
+        <v>37</v>
       </c>
       <c r="AG41" t="n">
-        <v>2107</v>
+        <v>37</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31.45161290322581</v>
+      </c>
+      <c r="D42" t="n">
         <v>64</v>
       </c>
-      <c r="C42" t="n">
-        <v>1514</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1580</v>
-      </c>
       <c r="E42" t="n">
-        <v>1512</v>
+        <v>64</v>
       </c>
       <c r="F42" t="n">
-        <v>1586</v>
+        <v>64</v>
       </c>
       <c r="G42" t="n">
-        <v>1603</v>
+        <v>64</v>
       </c>
       <c r="H42" t="n">
-        <v>1636</v>
+        <v>64</v>
       </c>
       <c r="I42" t="n">
-        <v>1657</v>
+        <v>64</v>
       </c>
       <c r="J42" t="n">
-        <v>1682</v>
+        <v>64</v>
       </c>
       <c r="K42" t="n">
-        <v>1708</v>
+        <v>64</v>
       </c>
       <c r="L42" t="n">
-        <v>1733</v>
+        <v>64</v>
       </c>
       <c r="M42" t="n">
-        <v>1760</v>
+        <v>64</v>
       </c>
       <c r="N42" t="n">
-        <v>1786</v>
+        <v>64</v>
       </c>
       <c r="O42" t="n">
-        <v>1810</v>
+        <v>64</v>
       </c>
       <c r="P42" t="n">
-        <v>1837</v>
+        <v>64</v>
       </c>
       <c r="Q42" t="n">
-        <v>1862</v>
+        <v>64</v>
       </c>
       <c r="R42" t="n">
-        <v>1888</v>
+        <v>64</v>
       </c>
       <c r="S42" t="n">
-        <v>1915</v>
+        <v>64</v>
       </c>
       <c r="T42" t="n">
-        <v>1942</v>
+        <v>64</v>
       </c>
       <c r="U42" t="n">
-        <v>1971</v>
+        <v>64</v>
       </c>
       <c r="V42" t="n">
-        <v>2000</v>
+        <v>64</v>
       </c>
       <c r="W42" t="n">
-        <v>2029</v>
+        <v>62</v>
       </c>
       <c r="X42" t="n">
-        <v>2059</v>
+        <v>62</v>
       </c>
       <c r="Y42" t="n">
-        <v>2090</v>
+        <v>62</v>
       </c>
       <c r="Z42" t="n">
-        <v>2121</v>
+        <v>62</v>
       </c>
       <c r="AA42" t="n">
-        <v>2153</v>
+        <v>62</v>
       </c>
       <c r="AB42" t="n">
-        <v>2185</v>
+        <v>62</v>
       </c>
       <c r="AC42" t="n">
-        <v>2218</v>
+        <v>62</v>
       </c>
       <c r="AD42" t="n">
-        <v>2251</v>
+        <v>60</v>
       </c>
       <c r="AE42" t="n">
-        <v>2293</v>
+        <v>60</v>
       </c>
       <c r="AF42" t="n">
-        <v>2329</v>
+        <v>60</v>
       </c>
       <c r="AG42" t="n">
-        <v>2371</v>
+        <v>60</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>1380</v>
+        <v>21.54838709677419</v>
       </c>
       <c r="D43" t="n">
-        <v>1394</v>
+        <v>1554</v>
       </c>
       <c r="E43" t="n">
-        <v>1461</v>
+        <v>1575</v>
       </c>
       <c r="F43" t="n">
-        <v>1476</v>
+        <v>1594</v>
       </c>
       <c r="G43" t="n">
-        <v>1504</v>
+        <v>1614</v>
       </c>
       <c r="H43" t="n">
-        <v>1530</v>
+        <v>1635</v>
       </c>
       <c r="I43" t="n">
-        <v>1559</v>
+        <v>1661</v>
       </c>
       <c r="J43" t="n">
-        <v>1586</v>
+        <v>1683</v>
       </c>
       <c r="K43" t="n">
-        <v>1615</v>
+        <v>1710</v>
       </c>
       <c r="L43" t="n">
-        <v>1641</v>
+        <v>1738</v>
       </c>
       <c r="M43" t="n">
-        <v>1671</v>
+        <v>1767</v>
       </c>
       <c r="N43" t="n">
-        <v>1697</v>
+        <v>1797</v>
       </c>
       <c r="O43" t="n">
-        <v>1724</v>
+        <v>1833</v>
       </c>
       <c r="P43" t="n">
-        <v>1754</v>
+        <v>1870</v>
       </c>
       <c r="Q43" t="n">
-        <v>1783</v>
+        <v>1910</v>
       </c>
       <c r="R43" t="n">
-        <v>1811</v>
+        <v>1950</v>
       </c>
       <c r="S43" t="n">
-        <v>1839</v>
+        <v>1996</v>
       </c>
       <c r="T43" t="n">
-        <v>1867</v>
+        <v>2046</v>
       </c>
       <c r="U43" t="n">
-        <v>1896</v>
+        <v>2098</v>
       </c>
       <c r="V43" t="n">
-        <v>1925</v>
+        <v>2152</v>
       </c>
       <c r="W43" t="n">
-        <v>1955</v>
+        <v>2212</v>
       </c>
       <c r="X43" t="n">
-        <v>1985</v>
+        <v>2276</v>
       </c>
       <c r="Y43" t="n">
-        <v>2017</v>
+        <v>2344</v>
       </c>
       <c r="Z43" t="n">
-        <v>2053</v>
+        <v>2420</v>
       </c>
       <c r="AA43" t="n">
-        <v>2087</v>
+        <v>2501</v>
       </c>
       <c r="AB43" t="n">
-        <v>2125</v>
+        <v>2584</v>
       </c>
       <c r="AC43" t="n">
-        <v>2161</v>
+        <v>2680</v>
       </c>
       <c r="AD43" t="n">
-        <v>2200</v>
+        <v>2779</v>
       </c>
       <c r="AE43" t="n">
-        <v>2238</v>
+        <v>2891</v>
       </c>
       <c r="AF43" t="n">
-        <v>2279</v>
+        <v>3010</v>
       </c>
       <c r="AG43" t="n">
-        <v>2322</v>
+        <v>3135</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>3266</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C44" t="n">
-        <v>622</v>
+        <v>15.29032258064516</v>
       </c>
       <c r="D44" t="n">
-        <v>646</v>
+        <v>477</v>
       </c>
       <c r="E44" t="n">
-        <v>669</v>
+        <v>483</v>
       </c>
       <c r="F44" t="n">
-        <v>695</v>
+        <v>489</v>
       </c>
       <c r="G44" t="n">
-        <v>723</v>
+        <v>494</v>
       </c>
       <c r="H44" t="n">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="I44" t="n">
-        <v>786</v>
+        <v>509</v>
       </c>
       <c r="J44" t="n">
-        <v>821</v>
+        <v>516</v>
       </c>
       <c r="K44" t="n">
-        <v>858</v>
+        <v>524</v>
       </c>
       <c r="L44" t="n">
-        <v>897</v>
+        <v>533</v>
       </c>
       <c r="M44" t="n">
-        <v>938</v>
+        <v>540</v>
       </c>
       <c r="N44" t="n">
-        <v>983</v>
+        <v>550</v>
       </c>
       <c r="O44" t="n">
-        <v>1029</v>
+        <v>559</v>
       </c>
       <c r="P44" t="n">
-        <v>1078</v>
+        <v>569</v>
       </c>
       <c r="Q44" t="n">
-        <v>1129</v>
+        <v>580</v>
       </c>
       <c r="R44" t="n">
-        <v>1183</v>
+        <v>590</v>
       </c>
       <c r="S44" t="n">
-        <v>1239</v>
+        <v>602</v>
       </c>
       <c r="T44" t="n">
-        <v>1298</v>
+        <v>614</v>
       </c>
       <c r="U44" t="n">
-        <v>1360</v>
+        <v>626</v>
       </c>
       <c r="V44" t="n">
-        <v>1425</v>
+        <v>639</v>
       </c>
       <c r="W44" t="n">
-        <v>1492</v>
+        <v>653</v>
       </c>
       <c r="X44" t="n">
-        <v>1561</v>
+        <v>666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1633</v>
+        <v>680</v>
       </c>
       <c r="Z44" t="n">
-        <v>1709</v>
+        <v>696</v>
       </c>
       <c r="AA44" t="n">
-        <v>1787</v>
+        <v>712</v>
       </c>
       <c r="AB44" t="n">
-        <v>1870</v>
+        <v>727</v>
       </c>
       <c r="AC44" t="n">
-        <v>1956</v>
+        <v>744</v>
       </c>
       <c r="AD44" t="n">
-        <v>2047</v>
+        <v>761</v>
       </c>
       <c r="AE44" t="n">
-        <v>2142</v>
+        <v>779</v>
       </c>
       <c r="AF44" t="n">
-        <v>2242</v>
+        <v>794</v>
       </c>
       <c r="AG44" t="n">
-        <v>2348</v>
+        <v>812</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>830</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>1654</v>
+        <v>15.2258064516129</v>
       </c>
       <c r="D45" t="n">
-        <v>1636</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>1695</v>
+        <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>1717</v>
+        <v>17</v>
       </c>
       <c r="G45" t="n">
-        <v>1731</v>
+        <v>18</v>
       </c>
       <c r="H45" t="n">
-        <v>1749</v>
+        <v>19</v>
       </c>
       <c r="I45" t="n">
-        <v>1768</v>
+        <v>19</v>
       </c>
       <c r="J45" t="n">
-        <v>1788</v>
+        <v>19</v>
       </c>
       <c r="K45" t="n">
-        <v>1807</v>
+        <v>19</v>
       </c>
       <c r="L45" t="n">
-        <v>1827</v>
+        <v>19</v>
       </c>
       <c r="M45" t="n">
-        <v>1847</v>
+        <v>19</v>
       </c>
       <c r="N45" t="n">
-        <v>1869</v>
+        <v>20</v>
       </c>
       <c r="O45" t="n">
-        <v>1889</v>
+        <v>21</v>
       </c>
       <c r="P45" t="n">
-        <v>1911</v>
+        <v>21</v>
       </c>
       <c r="Q45" t="n">
-        <v>1933</v>
+        <v>21</v>
       </c>
       <c r="R45" t="n">
-        <v>1960</v>
+        <v>21</v>
       </c>
       <c r="S45" t="n">
-        <v>1984</v>
+        <v>21</v>
       </c>
       <c r="T45" t="n">
-        <v>2012</v>
+        <v>22</v>
       </c>
       <c r="U45" t="n">
-        <v>2038</v>
+        <v>23</v>
       </c>
       <c r="V45" t="n">
-        <v>2067</v>
+        <v>23</v>
       </c>
       <c r="W45" t="n">
-        <v>2099</v>
+        <v>23</v>
       </c>
       <c r="X45" t="n">
-        <v>2130</v>
+        <v>24</v>
       </c>
       <c r="Y45" t="n">
-        <v>2164</v>
+        <v>24</v>
       </c>
       <c r="Z45" t="n">
-        <v>2197</v>
+        <v>24</v>
       </c>
       <c r="AA45" t="n">
-        <v>2232</v>
+        <v>24</v>
       </c>
       <c r="AB45" t="n">
-        <v>2267</v>
+        <v>25</v>
       </c>
       <c r="AC45" t="n">
-        <v>2303</v>
+        <v>26</v>
       </c>
       <c r="AD45" t="n">
-        <v>2340</v>
+        <v>26</v>
       </c>
       <c r="AE45" t="n">
-        <v>2382</v>
+        <v>26</v>
       </c>
       <c r="AF45" t="n">
-        <v>2422</v>
+        <v>27</v>
       </c>
       <c r="AG45" t="n">
-        <v>2468</v>
+        <v>27</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>2702</v>
+        <v>12.7741935483871</v>
       </c>
       <c r="D46" t="n">
-        <v>2618</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>2691</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>2693</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>2694</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>2695</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>2701</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>2711</v>
+        <v>11</v>
       </c>
       <c r="K46" t="n">
-        <v>2719</v>
+        <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>2730</v>
+        <v>12</v>
       </c>
       <c r="M46" t="n">
-        <v>2742</v>
+        <v>12</v>
       </c>
       <c r="N46" t="n">
-        <v>2756</v>
+        <v>12</v>
       </c>
       <c r="O46" t="n">
-        <v>2770</v>
+        <v>13</v>
       </c>
       <c r="P46" t="n">
-        <v>2783</v>
+        <v>13</v>
       </c>
       <c r="Q46" t="n">
-        <v>2796</v>
+        <v>15</v>
       </c>
       <c r="R46" t="n">
-        <v>2810</v>
+        <v>15</v>
       </c>
       <c r="S46" t="n">
-        <v>2823</v>
+        <v>16</v>
       </c>
       <c r="T46" t="n">
-        <v>2843</v>
+        <v>16</v>
       </c>
       <c r="U46" t="n">
-        <v>2863</v>
+        <v>17</v>
       </c>
       <c r="V46" t="n">
-        <v>2884</v>
+        <v>17</v>
       </c>
       <c r="W46" t="n">
-        <v>2907</v>
+        <v>17</v>
       </c>
       <c r="X46" t="n">
-        <v>2929</v>
+        <v>18</v>
       </c>
       <c r="Y46" t="n">
-        <v>2952</v>
+        <v>18</v>
       </c>
       <c r="Z46" t="n">
-        <v>2975</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="n">
-        <v>3006</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="n">
-        <v>3037</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="n">
-        <v>3071</v>
+        <v>20</v>
       </c>
       <c r="AD46" t="n">
-        <v>3106</v>
+        <v>21</v>
       </c>
       <c r="AE46" t="n">
-        <v>3142</v>
+        <v>21</v>
       </c>
       <c r="AF46" t="n">
-        <v>3178</v>
+        <v>23</v>
       </c>
       <c r="AG46" t="n">
-        <v>3224</v>
+        <v>23</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>11.83870967741935</v>
       </c>
       <c r="D47" t="n">
-        <v>49</v>
+        <v>3862</v>
       </c>
       <c r="E47" t="n">
-        <v>50</v>
+        <v>4021</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>4214</v>
       </c>
       <c r="G47" t="n">
-        <v>49</v>
+        <v>4434</v>
       </c>
       <c r="H47" t="n">
-        <v>50</v>
+        <v>4677</v>
       </c>
       <c r="I47" t="n">
-        <v>50</v>
+        <v>4918</v>
       </c>
       <c r="J47" t="n">
-        <v>49</v>
+        <v>5180</v>
       </c>
       <c r="K47" t="n">
-        <v>49</v>
+        <v>5440</v>
       </c>
       <c r="L47" t="n">
-        <v>49</v>
+        <v>5720</v>
       </c>
       <c r="M47" t="n">
-        <v>48</v>
+        <v>5989</v>
       </c>
       <c r="N47" t="n">
-        <v>48</v>
+        <v>6254</v>
       </c>
       <c r="O47" t="n">
-        <v>48</v>
+        <v>6520</v>
       </c>
       <c r="P47" t="n">
-        <v>47</v>
+        <v>6768</v>
       </c>
       <c r="Q47" t="n">
-        <v>47</v>
+        <v>7007</v>
       </c>
       <c r="R47" t="n">
-        <v>47</v>
+        <v>7220</v>
       </c>
       <c r="S47" t="n">
-        <v>47</v>
+        <v>7418</v>
       </c>
       <c r="T47" t="n">
-        <v>47</v>
+        <v>7590</v>
       </c>
       <c r="U47" t="n">
-        <v>46</v>
+        <v>7744</v>
       </c>
       <c r="V47" t="n">
-        <v>46</v>
+        <v>7888</v>
       </c>
       <c r="W47" t="n">
-        <v>46</v>
+        <v>8009</v>
       </c>
       <c r="X47" t="n">
-        <v>45</v>
+        <v>8119</v>
       </c>
       <c r="Y47" t="n">
-        <v>45</v>
+        <v>8217</v>
       </c>
       <c r="Z47" t="n">
-        <v>44</v>
+        <v>8311</v>
       </c>
       <c r="AA47" t="n">
-        <v>45</v>
+        <v>8383</v>
       </c>
       <c r="AB47" t="n">
-        <v>45</v>
+        <v>8444</v>
       </c>
       <c r="AC47" t="n">
-        <v>44</v>
+        <v>8498</v>
       </c>
       <c r="AD47" t="n">
-        <v>44</v>
+        <v>8543</v>
       </c>
       <c r="AE47" t="n">
-        <v>43</v>
+        <v>8586</v>
       </c>
       <c r="AF47" t="n">
-        <v>43</v>
+        <v>8611</v>
       </c>
       <c r="AG47" t="n">
-        <v>43</v>
+        <v>8646</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>8660</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>1542</v>
+        <v>11.74193548387097</v>
       </c>
       <c r="D48" t="n">
-        <v>1576</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>1564</v>
+        <v>18</v>
       </c>
       <c r="F48" t="n">
-        <v>1616</v>
+        <v>18</v>
       </c>
       <c r="G48" t="n">
-        <v>1658</v>
+        <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>1698</v>
+        <v>18</v>
       </c>
       <c r="I48" t="n">
-        <v>1740</v>
+        <v>20</v>
       </c>
       <c r="J48" t="n">
-        <v>1784</v>
+        <v>20</v>
       </c>
       <c r="K48" t="n">
-        <v>1826</v>
+        <v>20</v>
       </c>
       <c r="L48" t="n">
-        <v>1870</v>
+        <v>20</v>
       </c>
       <c r="M48" t="n">
-        <v>1914</v>
+        <v>20</v>
       </c>
       <c r="N48" t="n">
-        <v>1960</v>
+        <v>22</v>
       </c>
       <c r="O48" t="n">
-        <v>2006</v>
+        <v>22</v>
       </c>
       <c r="P48" t="n">
-        <v>2052</v>
+        <v>22</v>
       </c>
       <c r="Q48" t="n">
-        <v>2100</v>
+        <v>22</v>
       </c>
       <c r="R48" t="n">
-        <v>2150</v>
+        <v>24</v>
       </c>
       <c r="S48" t="n">
-        <v>2202</v>
+        <v>24</v>
       </c>
       <c r="T48" t="n">
-        <v>2254</v>
+        <v>24</v>
       </c>
       <c r="U48" t="n">
-        <v>2306</v>
+        <v>24</v>
       </c>
       <c r="V48" t="n">
-        <v>2360</v>
+        <v>24</v>
       </c>
       <c r="W48" t="n">
-        <v>2416</v>
+        <v>26</v>
       </c>
       <c r="X48" t="n">
-        <v>2474</v>
+        <v>26</v>
       </c>
       <c r="Y48" t="n">
-        <v>2532</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>2592</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
-        <v>2654</v>
+        <v>26</v>
       </c>
       <c r="AB48" t="n">
-        <v>2716</v>
+        <v>28</v>
       </c>
       <c r="AC48" t="n">
-        <v>2782</v>
+        <v>28</v>
       </c>
       <c r="AD48" t="n">
-        <v>2848</v>
+        <v>28</v>
       </c>
       <c r="AE48" t="n">
-        <v>2916</v>
+        <v>28</v>
       </c>
       <c r="AF48" t="n">
-        <v>2984</v>
+        <v>30</v>
       </c>
       <c r="AG48" t="n">
-        <v>3058</v>
+        <v>30</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B49" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>11.19354838709677</v>
       </c>
       <c r="D49" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E49" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G49" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H49" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I49" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J49" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K49" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L49" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N49" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O49" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P49" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q49" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R49" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="S49" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T49" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U49" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="V49" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W49" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="X49" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y49" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AE49" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AF49" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG49" t="n">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>10.64516129032258</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L50" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M50" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N50" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P50" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q50" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R50" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W50" t="n">
         <v>12</v>
@@ -5543,731 +5692,755 @@
         <v>12</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG50" t="n">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C51" t="n">
-        <v>64</v>
+        <v>10.19354838709677</v>
       </c>
       <c r="D51" t="n">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E51" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="F51" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G51" t="n">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="H51" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="J51" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K51" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="L51" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="M51" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="N51" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="O51" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P51" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="Q51" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="R51" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="S51" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="T51" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="U51" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="V51" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="W51" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="X51" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="Y51" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="Z51" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AD51" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AE51" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AF51" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG51" t="n">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>70</v>
+      </c>
+      <c r="B52" t="n">
+        <v>38</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.741935483870968</v>
+      </c>
+      <c r="D52" t="n">
+        <v>95</v>
+      </c>
+      <c r="E52" t="n">
+        <v>83</v>
+      </c>
+      <c r="F52" t="n">
+        <v>98</v>
+      </c>
+      <c r="G52" t="n">
+        <v>96</v>
+      </c>
+      <c r="H52" t="n">
+        <v>88</v>
+      </c>
+      <c r="I52" t="n">
+        <v>84</v>
+      </c>
+      <c r="J52" t="n">
+        <v>84</v>
+      </c>
+      <c r="K52" t="n">
+        <v>81</v>
+      </c>
+      <c r="L52" t="n">
+        <v>78</v>
+      </c>
+      <c r="M52" t="n">
+        <v>77</v>
+      </c>
+      <c r="N52" t="n">
+        <v>74</v>
+      </c>
+      <c r="O52" t="n">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>69</v>
+      </c>
+      <c r="R52" t="n">
+        <v>67</v>
+      </c>
+      <c r="S52" t="n">
+        <v>66</v>
+      </c>
+      <c r="T52" t="n">
+        <v>65</v>
+      </c>
+      <c r="U52" t="n">
+        <v>63</v>
+      </c>
+      <c r="V52" t="n">
+        <v>62</v>
+      </c>
+      <c r="W52" t="n">
+        <v>61</v>
+      </c>
+      <c r="X52" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z52" t="n">
         <v>58</v>
       </c>
-      <c r="B52" t="n">
-        <v>34</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7</v>
-      </c>
-      <c r="D52" t="n">
-        <v>7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>8</v>
-      </c>
-      <c r="G52" t="n">
-        <v>8</v>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>8</v>
-      </c>
-      <c r="L52" t="n">
-        <v>8</v>
-      </c>
-      <c r="M52" t="n">
-        <v>8</v>
-      </c>
-      <c r="N52" t="n">
-        <v>10</v>
-      </c>
-      <c r="O52" t="n">
-        <v>10</v>
-      </c>
-      <c r="P52" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>10</v>
-      </c>
-      <c r="R52" t="n">
-        <v>10</v>
-      </c>
-      <c r="S52" t="n">
-        <v>10</v>
-      </c>
-      <c r="T52" t="n">
-        <v>10</v>
-      </c>
-      <c r="U52" t="n">
-        <v>10</v>
-      </c>
-      <c r="V52" t="n">
-        <v>10</v>
-      </c>
-      <c r="W52" t="n">
-        <v>11</v>
-      </c>
-      <c r="X52" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>11</v>
-      </c>
       <c r="AA52" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="AB52" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="AC52" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AD52" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="AE52" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="AF52" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>958</v>
+        <v>7.903225806451613</v>
       </c>
       <c r="D53" t="n">
-        <v>1003</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>1006</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1007</v>
+        <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>1013</v>
+        <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>1020</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>1026</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
-        <v>1031</v>
+        <v>8</v>
       </c>
       <c r="K53" t="n">
-        <v>1037</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>1043</v>
+        <v>8</v>
       </c>
       <c r="M53" t="n">
-        <v>1048</v>
+        <v>8</v>
       </c>
       <c r="N53" t="n">
-        <v>1054</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
-        <v>1059</v>
+        <v>10</v>
       </c>
       <c r="P53" t="n">
-        <v>1065</v>
+        <v>10</v>
       </c>
       <c r="Q53" t="n">
-        <v>1070</v>
+        <v>10</v>
       </c>
       <c r="R53" t="n">
-        <v>1076</v>
+        <v>10</v>
       </c>
       <c r="S53" t="n">
-        <v>1082</v>
+        <v>10</v>
       </c>
       <c r="T53" t="n">
-        <v>1087</v>
+        <v>10</v>
       </c>
       <c r="U53" t="n">
-        <v>1093</v>
+        <v>10</v>
       </c>
       <c r="V53" t="n">
-        <v>1099</v>
+        <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>1105</v>
+        <v>10</v>
       </c>
       <c r="X53" t="n">
-        <v>1109</v>
+        <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>1115</v>
+        <v>11</v>
       </c>
       <c r="Z53" t="n">
-        <v>1120</v>
+        <v>11</v>
       </c>
       <c r="AA53" t="n">
-        <v>1125</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
-        <v>1130</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>1136</v>
+        <v>11</v>
       </c>
       <c r="AD53" t="n">
-        <v>1140</v>
+        <v>11</v>
       </c>
       <c r="AE53" t="n">
-        <v>1145</v>
+        <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>1150</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
-        <v>1155</v>
+        <v>11</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>7192</v>
+        <v>7.419354838709677</v>
       </c>
       <c r="D54" t="n">
-        <v>7282</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>7696</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>7566</v>
+        <v>8</v>
       </c>
       <c r="G54" t="n">
-        <v>7696</v>
+        <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>7824</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>7968</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>8076</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
-        <v>8216</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
-        <v>8360</v>
+        <v>10</v>
       </c>
       <c r="M54" t="n">
-        <v>8506</v>
+        <v>10</v>
       </c>
       <c r="N54" t="n">
-        <v>8652</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>8848</v>
+        <v>12</v>
       </c>
       <c r="P54" t="n">
-        <v>9056</v>
+        <v>12</v>
       </c>
       <c r="Q54" t="n">
-        <v>9280</v>
+        <v>12</v>
       </c>
       <c r="R54" t="n">
-        <v>9516</v>
+        <v>14</v>
       </c>
       <c r="S54" t="n">
-        <v>9760</v>
+        <v>14</v>
       </c>
       <c r="T54" t="n">
-        <v>10010</v>
+        <v>16</v>
       </c>
       <c r="U54" t="n">
-        <v>10266</v>
+        <v>16</v>
       </c>
       <c r="V54" t="n">
-        <v>10578</v>
+        <v>16</v>
       </c>
       <c r="W54" t="n">
-        <v>10864</v>
+        <v>18</v>
       </c>
       <c r="X54" t="n">
-        <v>11200</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>11562</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
-        <v>11938</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="n">
-        <v>12332</v>
+        <v>20</v>
       </c>
       <c r="AB54" t="n">
-        <v>12744</v>
+        <v>22</v>
       </c>
       <c r="AC54" t="n">
-        <v>13162</v>
+        <v>22</v>
       </c>
       <c r="AD54" t="n">
-        <v>13592</v>
+        <v>22</v>
       </c>
       <c r="AE54" t="n">
-        <v>14036</v>
+        <v>24</v>
       </c>
       <c r="AF54" t="n">
-        <v>14560</v>
+        <v>24</v>
       </c>
       <c r="AG54" t="n">
-        <v>15044</v>
+        <v>24</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>7.225806451612903</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>436</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>474</v>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>517</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>564</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>622</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>685</v>
       </c>
       <c r="J55" t="n">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="K55" t="n">
-        <v>7</v>
+        <v>831</v>
       </c>
       <c r="L55" t="n">
-        <v>7</v>
+        <v>915</v>
       </c>
       <c r="M55" t="n">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>1106</v>
       </c>
       <c r="O55" t="n">
-        <v>7</v>
+        <v>1213</v>
       </c>
       <c r="P55" t="n">
-        <v>7</v>
+        <v>1329</v>
       </c>
       <c r="Q55" t="n">
-        <v>7</v>
+        <v>1452</v>
       </c>
       <c r="R55" t="n">
-        <v>7</v>
+        <v>1586</v>
       </c>
       <c r="S55" t="n">
-        <v>8</v>
+        <v>1727</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>1880</v>
       </c>
       <c r="U55" t="n">
-        <v>8</v>
+        <v>2046</v>
       </c>
       <c r="V55" t="n">
-        <v>8</v>
+        <v>2228</v>
       </c>
       <c r="W55" t="n">
-        <v>9</v>
+        <v>2423</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>2639</v>
       </c>
       <c r="Y55" t="n">
-        <v>9</v>
+        <v>2879</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>3140</v>
       </c>
       <c r="AA55" t="n">
-        <v>10</v>
+        <v>3428</v>
       </c>
       <c r="AB55" t="n">
-        <v>10</v>
+        <v>3741</v>
       </c>
       <c r="AC55" t="n">
-        <v>10</v>
+        <v>4099</v>
       </c>
       <c r="AD55" t="n">
-        <v>10</v>
+        <v>4475</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>4892</v>
       </c>
       <c r="AF55" t="n">
-        <v>11</v>
+        <v>5327</v>
       </c>
       <c r="AG55" t="n">
-        <v>11</v>
+        <v>5780</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>6237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>18832</v>
+        <v>7.193548387096774</v>
       </c>
       <c r="D56" t="n">
-        <v>20866</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>20166</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
-        <v>21602</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>22446</v>
+        <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>23390</v>
+        <v>10</v>
       </c>
       <c r="I56" t="n">
-        <v>24132</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
-        <v>25090</v>
+        <v>10</v>
       </c>
       <c r="K56" t="n">
-        <v>26018</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
-        <v>26962</v>
+        <v>12</v>
       </c>
       <c r="M56" t="n">
-        <v>27820</v>
+        <v>12</v>
       </c>
       <c r="N56" t="n">
-        <v>28706</v>
+        <v>12</v>
       </c>
       <c r="O56" t="n">
-        <v>29572</v>
+        <v>12</v>
       </c>
       <c r="P56" t="n">
-        <v>30416</v>
+        <v>12</v>
       </c>
       <c r="Q56" t="n">
-        <v>31272</v>
+        <v>14</v>
       </c>
       <c r="R56" t="n">
-        <v>32036</v>
+        <v>14</v>
       </c>
       <c r="S56" t="n">
-        <v>32776</v>
+        <v>14</v>
       </c>
       <c r="T56" t="n">
-        <v>33486</v>
+        <v>14</v>
       </c>
       <c r="U56" t="n">
-        <v>34156</v>
+        <v>16</v>
       </c>
       <c r="V56" t="n">
-        <v>34714</v>
+        <v>16</v>
       </c>
       <c r="W56" t="n">
-        <v>35364</v>
+        <v>16</v>
       </c>
       <c r="X56" t="n">
-        <v>35888</v>
+        <v>16</v>
       </c>
       <c r="Y56" t="n">
-        <v>36372</v>
+        <v>18</v>
       </c>
       <c r="Z56" t="n">
-        <v>36742</v>
+        <v>18</v>
       </c>
       <c r="AA56" t="n">
-        <v>37164</v>
+        <v>18</v>
       </c>
       <c r="AB56" t="n">
-        <v>37448</v>
+        <v>18</v>
       </c>
       <c r="AC56" t="n">
-        <v>37694</v>
+        <v>18</v>
       </c>
       <c r="AD56" t="n">
-        <v>37944</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="n">
-        <v>38150</v>
+        <v>20</v>
       </c>
       <c r="AF56" t="n">
-        <v>38352</v>
+        <v>20</v>
       </c>
       <c r="AG56" t="n">
-        <v>38430</v>
+        <v>20</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>7.161290322580645</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G57" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H57" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I57" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J57" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K57" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L57" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M57" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N57" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="O57" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="P57" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q57" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="R57" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S57" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="T57" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="U57" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="V57" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="W57" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X57" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Y57" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Z57" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AA57" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AB57" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AC57" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AD57" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AE57" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AF57" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AG57" t="n">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>6.935483870967742</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
         <v>6</v>
@@ -6276,16 +6449,16 @@
         <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K58" t="n">
         <v>8</v>
@@ -6300,173 +6473,179 @@
         <v>8</v>
       </c>
       <c r="O58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X58" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG58" t="n">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>6.483870967741935</v>
       </c>
       <c r="D59" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G59" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H59" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I59" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M59" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N59" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O59" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P59" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="Q59" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="R59" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S59" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T59" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="U59" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="V59" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="W59" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="X59" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Y59" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Z59" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AA59" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB59" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AD59" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AE59" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AF59" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AG59" t="n">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
+        <v>40</v>
+      </c>
+      <c r="B60" t="n">
         <v>67</v>
       </c>
-      <c r="B60" t="n">
-        <v>3</v>
-      </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5.935483870967742</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -6475,7 +6654,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" t="n">
         <v>7</v>
@@ -6487,7 +6666,7 @@
         <v>7</v>
       </c>
       <c r="J60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K60" t="n">
         <v>8</v>
@@ -6499,7 +6678,7 @@
         <v>8</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
         <v>9</v>
@@ -6511,16 +6690,16 @@
         <v>9</v>
       </c>
       <c r="R60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V60" t="n">
         <v>11</v>
@@ -6529,842 +6708,869 @@
         <v>11</v>
       </c>
       <c r="X60" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z60" t="n">
         <v>12</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AA60" t="n">
         <v>12</v>
       </c>
-      <c r="Z60" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA60" t="n">
+      <c r="AB60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE60" t="n">
         <v>14</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AF60" t="n">
         <v>14</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AG60" t="n">
         <v>14</v>
       </c>
-      <c r="AD60" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>17</v>
+      <c r="AH60" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B61" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C61" t="n">
-        <v>121</v>
+        <v>5.516129032258065</v>
       </c>
       <c r="D61" t="n">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="I61" t="n">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="J61" t="n">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="K61" t="n">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="L61" t="n">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="M61" t="n">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="N61" t="n">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="P61" t="n">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="Q61" t="n">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="R61" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="S61" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="T61" t="n">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="U61" t="n">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="V61" t="n">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="W61" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="X61" t="n">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="Y61" t="n">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="Z61" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="AA61" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="AB61" t="n">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="AC61" t="n">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="AD61" t="n">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="AE61" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="AF61" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="AG61" t="n">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>11209</v>
+        <v>5.258064516129032</v>
       </c>
       <c r="D62" t="n">
-        <v>11785</v>
+        <v>26</v>
       </c>
       <c r="E62" t="n">
-        <v>12244</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>14185</v>
+        <v>27</v>
       </c>
       <c r="G62" t="n">
-        <v>13227</v>
+        <v>28</v>
       </c>
       <c r="H62" t="n">
-        <v>13200</v>
+        <v>30</v>
       </c>
       <c r="I62" t="n">
-        <v>13493</v>
+        <v>31</v>
       </c>
       <c r="J62" t="n">
-        <v>13790</v>
+        <v>32</v>
       </c>
       <c r="K62" t="n">
-        <v>13793</v>
+        <v>33</v>
       </c>
       <c r="L62" t="n">
-        <v>13871</v>
+        <v>33</v>
       </c>
       <c r="M62" t="n">
-        <v>13964</v>
+        <v>35</v>
       </c>
       <c r="N62" t="n">
-        <v>14051</v>
+        <v>36</v>
       </c>
       <c r="O62" t="n">
-        <v>14105</v>
+        <v>37</v>
       </c>
       <c r="P62" t="n">
-        <v>14175</v>
+        <v>39</v>
       </c>
       <c r="Q62" t="n">
-        <v>14216</v>
+        <v>40</v>
       </c>
       <c r="R62" t="n">
-        <v>14293</v>
+        <v>41</v>
       </c>
       <c r="S62" t="n">
-        <v>14317</v>
+        <v>42</v>
       </c>
       <c r="T62" t="n">
-        <v>14334</v>
+        <v>43</v>
       </c>
       <c r="U62" t="n">
-        <v>14350</v>
+        <v>44</v>
       </c>
       <c r="V62" t="n">
-        <v>14398</v>
+        <v>46</v>
       </c>
       <c r="W62" t="n">
-        <v>14410</v>
+        <v>47</v>
       </c>
       <c r="X62" t="n">
-        <v>14431</v>
+        <v>47</v>
       </c>
       <c r="Y62" t="n">
-        <v>14450</v>
+        <v>48</v>
       </c>
       <c r="Z62" t="n">
-        <v>14453</v>
+        <v>49</v>
       </c>
       <c r="AA62" t="n">
-        <v>14456</v>
+        <v>50</v>
       </c>
       <c r="AB62" t="n">
-        <v>14463</v>
+        <v>51</v>
       </c>
       <c r="AC62" t="n">
-        <v>14467</v>
+        <v>51</v>
       </c>
       <c r="AD62" t="n">
-        <v>14479</v>
+        <v>52</v>
       </c>
       <c r="AE62" t="n">
-        <v>14489</v>
+        <v>52</v>
       </c>
       <c r="AF62" t="n">
-        <v>14497</v>
+        <v>53</v>
       </c>
       <c r="AG62" t="n">
-        <v>14506</v>
+        <v>53</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>4.612903225806452</v>
       </c>
       <c r="D63" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="I63" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="K63" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="L63" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="M63" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="N63" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="O63" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="P63" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="Q63" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="R63" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="S63" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="T63" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="U63" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="V63" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="W63" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="X63" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Y63" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="Z63" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="AA63" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AB63" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AC63" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="AD63" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="AE63" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="AF63" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="AG63" t="n">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>1554</v>
+        <v>3.870967741935484</v>
       </c>
       <c r="D64" t="n">
-        <v>1575</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>1594</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>1614</v>
+        <v>16</v>
       </c>
       <c r="G64" t="n">
-        <v>1635</v>
+        <v>16</v>
       </c>
       <c r="H64" t="n">
-        <v>1661</v>
+        <v>17</v>
       </c>
       <c r="I64" t="n">
-        <v>1683</v>
+        <v>17</v>
       </c>
       <c r="J64" t="n">
-        <v>1710</v>
+        <v>18</v>
       </c>
       <c r="K64" t="n">
-        <v>1738</v>
+        <v>19</v>
       </c>
       <c r="L64" t="n">
-        <v>1767</v>
+        <v>19</v>
       </c>
       <c r="M64" t="n">
-        <v>1797</v>
+        <v>20</v>
       </c>
       <c r="N64" t="n">
-        <v>1833</v>
+        <v>20</v>
       </c>
       <c r="O64" t="n">
-        <v>1870</v>
+        <v>21</v>
       </c>
       <c r="P64" t="n">
-        <v>1910</v>
+        <v>21</v>
       </c>
       <c r="Q64" t="n">
-        <v>1950</v>
+        <v>22</v>
       </c>
       <c r="R64" t="n">
-        <v>1996</v>
+        <v>22</v>
       </c>
       <c r="S64" t="n">
-        <v>2046</v>
+        <v>23</v>
       </c>
       <c r="T64" t="n">
-        <v>2098</v>
+        <v>24</v>
       </c>
       <c r="U64" t="n">
-        <v>2152</v>
+        <v>25</v>
       </c>
       <c r="V64" t="n">
-        <v>2212</v>
+        <v>26</v>
       </c>
       <c r="W64" t="n">
-        <v>2276</v>
+        <v>26</v>
       </c>
       <c r="X64" t="n">
-        <v>2344</v>
+        <v>27</v>
       </c>
       <c r="Y64" t="n">
-        <v>2420</v>
+        <v>27</v>
       </c>
       <c r="Z64" t="n">
-        <v>2501</v>
+        <v>29</v>
       </c>
       <c r="AA64" t="n">
-        <v>2584</v>
+        <v>29</v>
       </c>
       <c r="AB64" t="n">
-        <v>2680</v>
+        <v>30</v>
       </c>
       <c r="AC64" t="n">
-        <v>2779</v>
+        <v>31</v>
       </c>
       <c r="AD64" t="n">
-        <v>2891</v>
+        <v>32</v>
       </c>
       <c r="AE64" t="n">
-        <v>3010</v>
+        <v>33</v>
       </c>
       <c r="AF64" t="n">
-        <v>3135</v>
+        <v>34</v>
       </c>
       <c r="AG64" t="n">
-        <v>3266</v>
+        <v>35</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.161290322580645</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
+      <c r="L65" t="n">
+        <v>7</v>
+      </c>
+      <c r="M65" t="n">
+        <v>7</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7</v>
+      </c>
+      <c r="P65" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7</v>
+      </c>
+      <c r="S65" t="n">
+        <v>7</v>
+      </c>
+      <c r="T65" t="n">
+        <v>8</v>
+      </c>
+      <c r="U65" t="n">
+        <v>8</v>
+      </c>
+      <c r="V65" t="n">
+        <v>8</v>
+      </c>
+      <c r="W65" t="n">
+        <v>8</v>
+      </c>
+      <c r="X65" t="n">
         <v>9</v>
       </c>
-      <c r="C65" t="n">
-        <v>116</v>
-      </c>
-      <c r="D65" t="n">
-        <v>119</v>
-      </c>
-      <c r="E65" t="n">
-        <v>122</v>
-      </c>
-      <c r="F65" t="n">
-        <v>124</v>
-      </c>
-      <c r="G65" t="n">
-        <v>127</v>
-      </c>
-      <c r="H65" t="n">
-        <v>129</v>
-      </c>
-      <c r="I65" t="n">
-        <v>132</v>
-      </c>
-      <c r="J65" t="n">
-        <v>134</v>
-      </c>
-      <c r="K65" t="n">
-        <v>138</v>
-      </c>
-      <c r="L65" t="n">
-        <v>140</v>
-      </c>
-      <c r="M65" t="n">
-        <v>143</v>
-      </c>
-      <c r="N65" t="n">
-        <v>146</v>
-      </c>
-      <c r="O65" t="n">
-        <v>149</v>
-      </c>
-      <c r="P65" t="n">
-        <v>152</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>155</v>
-      </c>
-      <c r="R65" t="n">
-        <v>158</v>
-      </c>
-      <c r="S65" t="n">
-        <v>161</v>
-      </c>
-      <c r="T65" t="n">
-        <v>165</v>
-      </c>
-      <c r="U65" t="n">
-        <v>168</v>
-      </c>
-      <c r="V65" t="n">
-        <v>170</v>
-      </c>
-      <c r="W65" t="n">
-        <v>174</v>
-      </c>
-      <c r="X65" t="n">
-        <v>178</v>
-      </c>
       <c r="Y65" t="n">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="Z65" t="n">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="AA65" t="n">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="AB65" t="n">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="AC65" t="n">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="AD65" t="n">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="AE65" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AF65" t="n">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="AG65" t="n">
-        <v>207</v>
+        <v>11</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" t="n">
-        <v>3188</v>
+        <v>3.032258064516129</v>
       </c>
       <c r="D66" t="n">
-        <v>3361</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>3309</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>3329</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
-        <v>3452</v>
+        <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>3563</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>3661</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>3761</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>3867</v>
+        <v>6</v>
       </c>
       <c r="L66" t="n">
-        <v>3991</v>
+        <v>8</v>
       </c>
       <c r="M66" t="n">
-        <v>4119</v>
+        <v>8</v>
       </c>
       <c r="N66" t="n">
-        <v>4255</v>
+        <v>8</v>
       </c>
       <c r="O66" t="n">
-        <v>4399</v>
+        <v>8</v>
       </c>
       <c r="P66" t="n">
-        <v>4571</v>
+        <v>8</v>
       </c>
       <c r="Q66" t="n">
-        <v>4755</v>
+        <v>8</v>
       </c>
       <c r="R66" t="n">
-        <v>4949</v>
+        <v>8</v>
       </c>
       <c r="S66" t="n">
-        <v>5158</v>
+        <v>8</v>
       </c>
       <c r="T66" t="n">
-        <v>5373</v>
+        <v>8</v>
       </c>
       <c r="U66" t="n">
-        <v>5597</v>
+        <v>8</v>
       </c>
       <c r="V66" t="n">
-        <v>5828</v>
+        <v>8</v>
       </c>
       <c r="W66" t="n">
-        <v>6098</v>
+        <v>8</v>
       </c>
       <c r="X66" t="n">
-        <v>6354</v>
+        <v>8</v>
       </c>
       <c r="Y66" t="n">
-        <v>6653</v>
+        <v>8</v>
       </c>
       <c r="Z66" t="n">
-        <v>6968</v>
+        <v>9</v>
       </c>
       <c r="AA66" t="n">
-        <v>7262</v>
+        <v>9</v>
       </c>
       <c r="AB66" t="n">
-        <v>7603</v>
+        <v>9</v>
       </c>
       <c r="AC66" t="n">
-        <v>7956</v>
+        <v>9</v>
       </c>
       <c r="AD66" t="n">
-        <v>8284</v>
+        <v>9</v>
       </c>
       <c r="AE66" t="n">
-        <v>8665</v>
+        <v>9</v>
       </c>
       <c r="AF66" t="n">
-        <v>9017</v>
+        <v>10</v>
       </c>
       <c r="AG66" t="n">
-        <v>9369</v>
+        <v>10</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.387096774193548</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>6</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6</v>
+      </c>
+      <c r="O67" t="n">
+        <v>6</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>6</v>
+      </c>
+      <c r="S67" t="n">
+        <v>6</v>
+      </c>
+      <c r="T67" t="n">
+        <v>7</v>
+      </c>
+      <c r="U67" t="n">
         <v>8</v>
       </c>
-      <c r="C67" t="n">
+      <c r="V67" t="n">
         <v>8</v>
       </c>
-      <c r="D67" t="n">
+      <c r="W67" t="n">
+        <v>8</v>
+      </c>
+      <c r="X67" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC67" t="n">
         <v>9</v>
       </c>
-      <c r="E67" t="n">
+      <c r="AD67" t="n">
         <v>9</v>
       </c>
-      <c r="F67" t="n">
+      <c r="AE67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG67" t="n">
         <v>10</v>
       </c>
-      <c r="G67" t="n">
+      <c r="AH67" t="n">
         <v>10</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11</v>
-      </c>
-      <c r="K67" t="n">
-        <v>12</v>
-      </c>
-      <c r="L67" t="n">
-        <v>12</v>
-      </c>
-      <c r="M67" t="n">
-        <v>12</v>
-      </c>
-      <c r="N67" t="n">
-        <v>13</v>
-      </c>
-      <c r="O67" t="n">
-        <v>13</v>
-      </c>
-      <c r="P67" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>15</v>
-      </c>
-      <c r="R67" t="n">
-        <v>16</v>
-      </c>
-      <c r="S67" t="n">
-        <v>16</v>
-      </c>
-      <c r="T67" t="n">
-        <v>17</v>
-      </c>
-      <c r="U67" t="n">
-        <v>17</v>
-      </c>
-      <c r="V67" t="n">
-        <v>17</v>
-      </c>
-      <c r="W67" t="n">
-        <v>18</v>
-      </c>
-      <c r="X67" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>1.67741935483871</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G68" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L68" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M68" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N68" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O68" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P68" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="Q68" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="R68" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="S68" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T68" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="U68" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="V68" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="W68" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="X68" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="Y68" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z68" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA68" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB68" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AC68" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AD68" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AE68" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AF68" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AG68" t="n">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
